--- a/BCC.xlsx
+++ b/BCC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qlnha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\khaservice-hr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6506AC5C-45A0-45A0-B0A0-B6988F6A6A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EA401C-AA31-400E-9678-AE8D8777DC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="595" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3799,6 +3799,36 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="54" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="14" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="17" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="12" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="18" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3817,36 +3847,6 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="54" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="14" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="17" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="12" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="18" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="73" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3865,47 +3865,134 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="77" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="28" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="66" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="36" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="37" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="82" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="70" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="28" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="66" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="36" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3925,6 +4012,39 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3934,39 +4054,6 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3985,134 +4072,50 @@
     <xf numFmtId="164" fontId="33" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="82" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="70" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="37" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4123,9 +4126,6 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4159,6 +4159,57 @@
     <xf numFmtId="2" fontId="30" fillId="0" borderId="3" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="0" borderId="81" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="0" borderId="85" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="44" fillId="0" borderId="26" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
@@ -4181,57 +4232,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="0" borderId="85" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="0" borderId="81" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4754,75 +4754,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A1" s="462" t="s">
+      <c r="A1" s="472" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="462"/>
-      <c r="C1" s="462"/>
-      <c r="D1" s="462"/>
-      <c r="E1" s="462" t="s">
+      <c r="B1" s="472"/>
+      <c r="C1" s="472"/>
+      <c r="D1" s="472"/>
+      <c r="E1" s="472" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="462"/>
-      <c r="G1" s="462"/>
-      <c r="H1" s="462"/>
-      <c r="I1" s="462"/>
+      <c r="F1" s="472"/>
+      <c r="G1" s="472"/>
+      <c r="H1" s="472"/>
+      <c r="I1" s="472"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
-      <c r="A2" s="463" t="s">
+      <c r="A2" s="473" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="463"/>
-      <c r="C2" s="463"/>
-      <c r="D2" s="463"/>
-      <c r="E2" s="462" t="s">
+      <c r="B2" s="473"/>
+      <c r="C2" s="473"/>
+      <c r="D2" s="473"/>
+      <c r="E2" s="472" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="462"/>
-      <c r="G2" s="462"/>
-      <c r="H2" s="462"/>
-      <c r="I2" s="462"/>
+      <c r="F2" s="472"/>
+      <c r="G2" s="472"/>
+      <c r="H2" s="472"/>
+      <c r="I2" s="472"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A3" s="462" t="s">
+      <c r="A3" s="472" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="462"/>
-      <c r="C3" s="462"/>
-      <c r="D3" s="462"/>
-      <c r="E3" s="464" t="s">
+      <c r="B3" s="472"/>
+      <c r="C3" s="472"/>
+      <c r="D3" s="472"/>
+      <c r="E3" s="474" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="464"/>
-      <c r="G3" s="464"/>
-      <c r="H3" s="464"/>
-      <c r="I3" s="464"/>
+      <c r="F3" s="474"/>
+      <c r="G3" s="474"/>
+      <c r="H3" s="474"/>
+      <c r="I3" s="474"/>
     </row>
     <row r="4" spans="1:12" ht="31.65" customHeight="1">
-      <c r="A4" s="461" t="s">
+      <c r="A4" s="471" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="461"/>
-      <c r="C4" s="461"/>
-      <c r="D4" s="461"/>
-      <c r="E4" s="461"/>
-      <c r="F4" s="461"/>
-      <c r="G4" s="461"/>
-      <c r="H4" s="461"/>
-      <c r="I4" s="461"/>
+      <c r="B4" s="471"/>
+      <c r="C4" s="471"/>
+      <c r="D4" s="471"/>
+      <c r="E4" s="471"/>
+      <c r="F4" s="471"/>
+      <c r="G4" s="471"/>
+      <c r="H4" s="471"/>
+      <c r="I4" s="471"/>
     </row>
     <row r="5" spans="1:12" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A5" s="459" t="s">
+      <c r="A5" s="469" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="459"/>
-      <c r="C5" s="459"/>
-      <c r="D5" s="459"/>
-      <c r="E5" s="459"/>
-      <c r="F5" s="459"/>
-      <c r="G5" s="459"/>
-      <c r="H5" s="459"/>
-      <c r="I5" s="459"/>
+      <c r="B5" s="469"/>
+      <c r="C5" s="469"/>
+      <c r="D5" s="469"/>
+      <c r="E5" s="469"/>
+      <c r="F5" s="469"/>
+      <c r="G5" s="469"/>
+      <c r="H5" s="469"/>
+      <c r="I5" s="469"/>
     </row>
     <row r="6" spans="1:12" ht="30.15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="223" t="s">
@@ -4831,10 +4831,10 @@
       <c r="B6" s="225" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="466" t="s">
+      <c r="C6" s="460" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="467"/>
+      <c r="D6" s="461"/>
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
@@ -4861,10 +4861,10 @@
       <c r="B7" s="15">
         <v>2</v>
       </c>
-      <c r="C7" s="468">
+      <c r="C7" s="462">
         <v>3</v>
       </c>
-      <c r="D7" s="469"/>
+      <c r="D7" s="463"/>
       <c r="E7" s="16">
         <v>4</v>
       </c>
@@ -5483,11 +5483,11 @@
     <row r="26" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="33"/>
       <c r="B26" s="177"/>
-      <c r="C26" s="472" t="s">
+      <c r="C26" s="466" t="s">
         <v>134</v>
       </c>
-      <c r="D26" s="473"/>
-      <c r="E26" s="474"/>
+      <c r="D26" s="467"/>
+      <c r="E26" s="468"/>
       <c r="F26" s="30"/>
       <c r="G26" s="124"/>
       <c r="H26" s="233"/>
@@ -5751,10 +5751,10 @@
         <v>22</v>
       </c>
       <c r="B34" s="85"/>
-      <c r="C34" s="470" t="s">
+      <c r="C34" s="464" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="471"/>
+      <c r="D34" s="465"/>
       <c r="E34" s="6"/>
       <c r="F34" s="9">
         <f>F25+F33</f>
@@ -5800,28 +5800,28 @@
     <row r="36" spans="1:12" s="28" customFormat="1" ht="24" customHeight="1">
       <c r="C36" s="112"/>
       <c r="D36" s="113"/>
-      <c r="F36" s="460" t="s">
+      <c r="F36" s="470" t="s">
         <v>164</v>
       </c>
-      <c r="G36" s="460"/>
-      <c r="H36" s="460"/>
-      <c r="I36" s="460"/>
+      <c r="G36" s="470"/>
+      <c r="H36" s="470"/>
+      <c r="I36" s="470"/>
       <c r="J36" s="94"/>
     </row>
     <row r="37" spans="1:12" s="28" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A37" s="460" t="s">
+      <c r="A37" s="470" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="460"/>
+      <c r="B37" s="470"/>
       <c r="D37" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="F37" s="460" t="s">
+      <c r="F37" s="470" t="s">
         <v>118</v>
       </c>
-      <c r="G37" s="460"/>
-      <c r="H37" s="460"/>
-      <c r="I37" s="460"/>
+      <c r="G37" s="470"/>
+      <c r="H37" s="470"/>
+      <c r="I37" s="470"/>
       <c r="J37" s="94"/>
     </row>
     <row r="38" spans="1:12" s="28" customFormat="1">
@@ -5841,10 +5841,10 @@
       <c r="J41" s="94"/>
     </row>
     <row r="42" spans="1:12" s="28" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A42" s="465" t="s">
+      <c r="A42" s="459" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="465"/>
+      <c r="B42" s="459"/>
       <c r="D42" s="103" t="s">
         <v>117</v>
       </c>
@@ -6046,11 +6046,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C26:E26"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A4:I4"/>
@@ -6062,6 +6057,11 @@
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="F36:I36"/>
     <mergeCell ref="F37:I37"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C26:E26"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7517,6 +7517,20 @@
     <row r="127" s="87" customFormat="1"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="E15:G15"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="A36:C36"/>
@@ -7527,20 +7541,6 @@
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="E49:G49"/>
     <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="E67:G67"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
@@ -7578,110 +7578,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A1" s="462" t="s">
+      <c r="A1" s="472" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="462"/>
-      <c r="C1" s="462"/>
-      <c r="D1" s="462"/>
-      <c r="E1" s="462" t="s">
+      <c r="B1" s="472"/>
+      <c r="C1" s="472"/>
+      <c r="D1" s="472"/>
+      <c r="E1" s="472" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="462"/>
-      <c r="G1" s="462"/>
-      <c r="H1" s="462"/>
+      <c r="F1" s="472"/>
+      <c r="G1" s="472"/>
+      <c r="H1" s="472"/>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="463" t="s">
+      <c r="A2" s="473" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="463"/>
-      <c r="C2" s="463"/>
-      <c r="D2" s="463"/>
-      <c r="E2" s="462" t="s">
+      <c r="B2" s="473"/>
+      <c r="C2" s="473"/>
+      <c r="D2" s="473"/>
+      <c r="E2" s="472" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="462"/>
-      <c r="G2" s="462"/>
-      <c r="H2" s="462"/>
+      <c r="F2" s="472"/>
+      <c r="G2" s="472"/>
+      <c r="H2" s="472"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A3" s="481" t="s">
+      <c r="A3" s="494" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="462"/>
-      <c r="C3" s="462"/>
-      <c r="D3" s="462"/>
-      <c r="E3" s="464" t="s">
+      <c r="B3" s="472"/>
+      <c r="C3" s="472"/>
+      <c r="D3" s="472"/>
+      <c r="E3" s="474" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="464"/>
-      <c r="G3" s="464"/>
-      <c r="H3" s="464"/>
+      <c r="F3" s="474"/>
+      <c r="G3" s="474"/>
+      <c r="H3" s="474"/>
     </row>
     <row r="4" spans="1:11" ht="31.65" customHeight="1">
-      <c r="A4" s="461" t="s">
+      <c r="A4" s="471" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="461"/>
-      <c r="C4" s="461"/>
-      <c r="D4" s="461"/>
-      <c r="E4" s="461"/>
-      <c r="F4" s="461"/>
-      <c r="G4" s="461"/>
-      <c r="H4" s="461"/>
+      <c r="B4" s="471"/>
+      <c r="C4" s="471"/>
+      <c r="D4" s="471"/>
+      <c r="E4" s="471"/>
+      <c r="F4" s="471"/>
+      <c r="G4" s="471"/>
+      <c r="H4" s="471"/>
     </row>
     <row r="5" spans="1:11" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A5" s="459" t="s">
+      <c r="A5" s="469" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="459"/>
-      <c r="C5" s="459"/>
-      <c r="D5" s="459"/>
-      <c r="E5" s="459"/>
-      <c r="F5" s="459"/>
-      <c r="G5" s="459"/>
-      <c r="H5" s="459"/>
+      <c r="B5" s="469"/>
+      <c r="C5" s="469"/>
+      <c r="D5" s="469"/>
+      <c r="E5" s="469"/>
+      <c r="F5" s="469"/>
+      <c r="G5" s="469"/>
+      <c r="H5" s="469"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A6" s="482" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="467" t="s">
+      <c r="A6" s="486" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="461" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="466" t="s">
+      <c r="C6" s="460" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="467"/>
-      <c r="E6" s="486" t="s">
+      <c r="D6" s="461"/>
+      <c r="E6" s="490" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="488" t="s">
+      <c r="G6" s="492" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="488" t="s">
+      <c r="H6" s="492" t="s">
         <v>202</v>
       </c>
-      <c r="J6" s="491" t="s">
+      <c r="J6" s="482" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A7" s="483"/>
-      <c r="B7" s="484"/>
-      <c r="C7" s="485"/>
-      <c r="D7" s="484"/>
-      <c r="E7" s="487"/>
+      <c r="A7" s="487"/>
+      <c r="B7" s="488"/>
+      <c r="C7" s="489"/>
+      <c r="D7" s="488"/>
+      <c r="E7" s="491"/>
       <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="489"/>
-      <c r="H7" s="489"/>
-      <c r="J7" s="491"/>
+      <c r="G7" s="493"/>
+      <c r="H7" s="493"/>
+      <c r="J7" s="482"/>
       <c r="K7" s="1" t="s">
         <v>154</v>
       </c>
@@ -7693,10 +7693,10 @@
       <c r="B8" s="15">
         <v>2</v>
       </c>
-      <c r="C8" s="468">
+      <c r="C8" s="462">
         <v>3</v>
       </c>
-      <c r="D8" s="469"/>
+      <c r="D8" s="463"/>
       <c r="E8" s="16">
         <v>4</v>
       </c>
@@ -7824,11 +7824,11 @@
     <row r="13" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="96"/>
       <c r="B13" s="262"/>
-      <c r="C13" s="492" t="s">
+      <c r="C13" s="483" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="493"/>
-      <c r="E13" s="494"/>
+      <c r="D13" s="484"/>
+      <c r="E13" s="485"/>
       <c r="F13" s="98"/>
       <c r="G13" s="356"/>
       <c r="H13" s="352"/>
@@ -7930,10 +7930,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="85"/>
-      <c r="C17" s="470" t="s">
+      <c r="C17" s="464" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="471"/>
+      <c r="D17" s="465"/>
       <c r="E17" s="335"/>
       <c r="F17" s="9">
         <f>F12+F16</f>
@@ -7970,27 +7970,27 @@
     <row r="19" spans="1:11" s="28" customFormat="1" ht="24" customHeight="1">
       <c r="C19" s="112"/>
       <c r="D19" s="113"/>
-      <c r="F19" s="460" t="s">
+      <c r="F19" s="470" t="s">
         <v>200</v>
       </c>
-      <c r="G19" s="460"/>
-      <c r="H19" s="460"/>
+      <c r="G19" s="470"/>
+      <c r="H19" s="470"/>
       <c r="I19" s="94"/>
       <c r="K19" s="339"/>
     </row>
     <row r="20" spans="1:11" s="28" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A20" s="460" t="s">
+      <c r="A20" s="470" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="460"/>
+      <c r="B20" s="470"/>
       <c r="D20" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="F20" s="460" t="s">
+      <c r="F20" s="470" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="460"/>
-      <c r="H20" s="460"/>
+      <c r="G20" s="470"/>
+      <c r="H20" s="470"/>
       <c r="I20" s="94"/>
       <c r="K20" s="339"/>
     </row>
@@ -8011,11 +8011,11 @@
       <c r="I24" s="94"/>
     </row>
     <row r="25" spans="1:11" s="28" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A25" s="490" t="s">
+      <c r="A25" s="481" t="s">
         <v>170</v>
       </c>
-      <c r="B25" s="490"/>
-      <c r="C25" s="490"/>
+      <c r="B25" s="481"/>
+      <c r="C25" s="481"/>
       <c r="D25" s="103"/>
       <c r="F25" s="114"/>
       <c r="I25" s="94"/>
@@ -8211,6 +8211,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="C8:D8"/>
@@ -8219,20 +8233,6 @@
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8246,11 +8246,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F360479-0694-4E75-B2F6-46E0BF19AD93}">
   <dimension ref="A1:AX48"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="S17" sqref="S17"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24:AO24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -8271,19 +8271,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="495" t="s">
+      <c r="A1" s="524" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="495"/>
-      <c r="C1" s="495"/>
-      <c r="D1" s="495"/>
-      <c r="E1" s="495"/>
-      <c r="F1" s="495"/>
-      <c r="G1" s="495"/>
-      <c r="H1" s="495"/>
-      <c r="I1" s="495"/>
-      <c r="J1" s="495"/>
-      <c r="K1" s="495"/>
+      <c r="B1" s="524"/>
+      <c r="C1" s="524"/>
+      <c r="D1" s="524"/>
+      <c r="E1" s="524"/>
+      <c r="F1" s="524"/>
+      <c r="G1" s="524"/>
+      <c r="H1" s="524"/>
+      <c r="I1" s="524"/>
+      <c r="J1" s="524"/>
+      <c r="K1" s="524"/>
       <c r="L1" s="402"/>
       <c r="M1" s="403"/>
       <c r="N1" s="403"/>
@@ -8325,18 +8325,18 @@
       <c r="AX1" s="103"/>
     </row>
     <row r="2" spans="1:50" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="496" t="s">
+      <c r="A2" s="525" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="496"/>
-      <c r="C2" s="496"/>
-      <c r="D2" s="496"/>
-      <c r="E2" s="496"/>
-      <c r="F2" s="496"/>
-      <c r="G2" s="496"/>
-      <c r="H2" s="496"/>
-      <c r="I2" s="496"/>
-      <c r="J2" s="496"/>
+      <c r="B2" s="525"/>
+      <c r="C2" s="525"/>
+      <c r="D2" s="525"/>
+      <c r="E2" s="525"/>
+      <c r="F2" s="525"/>
+      <c r="G2" s="525"/>
+      <c r="H2" s="525"/>
+      <c r="I2" s="525"/>
+      <c r="J2" s="525"/>
       <c r="K2" s="404"/>
       <c r="L2" s="404"/>
       <c r="M2" s="405"/>
@@ -8371,16 +8371,16 @@
       <c r="AP2" s="402"/>
     </row>
     <row r="3" spans="1:50" s="28" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A3" s="497"/>
-      <c r="B3" s="497"/>
-      <c r="C3" s="497"/>
-      <c r="D3" s="497"/>
-      <c r="E3" s="497"/>
-      <c r="F3" s="497"/>
-      <c r="G3" s="497"/>
-      <c r="H3" s="497"/>
-      <c r="I3" s="497"/>
-      <c r="J3" s="497"/>
+      <c r="A3" s="526"/>
+      <c r="B3" s="526"/>
+      <c r="C3" s="526"/>
+      <c r="D3" s="526"/>
+      <c r="E3" s="526"/>
+      <c r="F3" s="526"/>
+      <c r="G3" s="526"/>
+      <c r="H3" s="526"/>
+      <c r="I3" s="526"/>
+      <c r="J3" s="526"/>
       <c r="K3" s="404"/>
       <c r="L3" s="404"/>
       <c r="M3" s="405"/>
@@ -8415,148 +8415,148 @@
       <c r="AP3" s="420"/>
     </row>
     <row r="4" spans="1:50" s="328" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A4" s="498" t="str">
+      <c r="A4" s="527" t="str">
         <f>"BẢNG CHẤM CÔNG THÁNG "&amp;TEXT(MONTH($D$7),"00")&amp;" NĂM 2025"</f>
         <v>BẢNG CHẤM CÔNG THÁNG 12 NĂM 2025</v>
       </c>
-      <c r="B4" s="498"/>
-      <c r="C4" s="498"/>
-      <c r="D4" s="498"/>
-      <c r="E4" s="498"/>
-      <c r="F4" s="498"/>
-      <c r="G4" s="498"/>
-      <c r="H4" s="498"/>
-      <c r="I4" s="498"/>
-      <c r="J4" s="498"/>
-      <c r="K4" s="498"/>
-      <c r="L4" s="498"/>
-      <c r="M4" s="498"/>
-      <c r="N4" s="498"/>
-      <c r="O4" s="498"/>
-      <c r="P4" s="498"/>
-      <c r="Q4" s="498"/>
-      <c r="R4" s="498"/>
-      <c r="S4" s="498"/>
-      <c r="T4" s="498"/>
-      <c r="U4" s="498"/>
-      <c r="V4" s="498"/>
-      <c r="W4" s="498"/>
-      <c r="X4" s="498"/>
-      <c r="Y4" s="498"/>
-      <c r="Z4" s="498"/>
-      <c r="AA4" s="498"/>
-      <c r="AB4" s="498"/>
-      <c r="AC4" s="498"/>
-      <c r="AD4" s="498"/>
-      <c r="AE4" s="498"/>
-      <c r="AF4" s="498"/>
-      <c r="AG4" s="498"/>
-      <c r="AH4" s="498"/>
-      <c r="AI4" s="498"/>
-      <c r="AJ4" s="498"/>
-      <c r="AK4" s="498"/>
-      <c r="AL4" s="498"/>
-      <c r="AM4" s="498"/>
-      <c r="AN4" s="498"/>
-      <c r="AO4" s="498"/>
-      <c r="AP4" s="498"/>
+      <c r="B4" s="527"/>
+      <c r="C4" s="527"/>
+      <c r="D4" s="527"/>
+      <c r="E4" s="527"/>
+      <c r="F4" s="527"/>
+      <c r="G4" s="527"/>
+      <c r="H4" s="527"/>
+      <c r="I4" s="527"/>
+      <c r="J4" s="527"/>
+      <c r="K4" s="527"/>
+      <c r="L4" s="527"/>
+      <c r="M4" s="527"/>
+      <c r="N4" s="527"/>
+      <c r="O4" s="527"/>
+      <c r="P4" s="527"/>
+      <c r="Q4" s="527"/>
+      <c r="R4" s="527"/>
+      <c r="S4" s="527"/>
+      <c r="T4" s="527"/>
+      <c r="U4" s="527"/>
+      <c r="V4" s="527"/>
+      <c r="W4" s="527"/>
+      <c r="X4" s="527"/>
+      <c r="Y4" s="527"/>
+      <c r="Z4" s="527"/>
+      <c r="AA4" s="527"/>
+      <c r="AB4" s="527"/>
+      <c r="AC4" s="527"/>
+      <c r="AD4" s="527"/>
+      <c r="AE4" s="527"/>
+      <c r="AF4" s="527"/>
+      <c r="AG4" s="527"/>
+      <c r="AH4" s="527"/>
+      <c r="AI4" s="527"/>
+      <c r="AJ4" s="527"/>
+      <c r="AK4" s="527"/>
+      <c r="AL4" s="527"/>
+      <c r="AM4" s="527"/>
+      <c r="AN4" s="527"/>
+      <c r="AO4" s="527"/>
+      <c r="AP4" s="527"/>
     </row>
     <row r="5" spans="1:50" ht="20.25" customHeight="1">
-      <c r="A5" s="499" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="500" t="s">
+      <c r="A5" s="528" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="529" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="499" t="s">
+      <c r="C5" s="528" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="504" t="s">
+      <c r="D5" s="530" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="505"/>
-      <c r="F5" s="505"/>
-      <c r="G5" s="505"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="505"/>
-      <c r="J5" s="505"/>
-      <c r="K5" s="505"/>
-      <c r="L5" s="505"/>
-      <c r="M5" s="505"/>
-      <c r="N5" s="505"/>
-      <c r="O5" s="505"/>
-      <c r="P5" s="505"/>
-      <c r="Q5" s="505"/>
-      <c r="R5" s="505"/>
-      <c r="S5" s="505"/>
-      <c r="T5" s="505"/>
-      <c r="U5" s="505"/>
-      <c r="V5" s="505"/>
-      <c r="W5" s="505"/>
-      <c r="X5" s="505"/>
-      <c r="Y5" s="505"/>
-      <c r="Z5" s="505"/>
-      <c r="AA5" s="505"/>
-      <c r="AB5" s="505"/>
-      <c r="AC5" s="505"/>
-      <c r="AD5" s="505"/>
-      <c r="AE5" s="505"/>
-      <c r="AF5" s="505"/>
-      <c r="AG5" s="505"/>
-      <c r="AH5" s="506"/>
-      <c r="AI5" s="510" t="s">
+      <c r="E5" s="531"/>
+      <c r="F5" s="531"/>
+      <c r="G5" s="531"/>
+      <c r="H5" s="531"/>
+      <c r="I5" s="531"/>
+      <c r="J5" s="531"/>
+      <c r="K5" s="531"/>
+      <c r="L5" s="531"/>
+      <c r="M5" s="531"/>
+      <c r="N5" s="531"/>
+      <c r="O5" s="531"/>
+      <c r="P5" s="531"/>
+      <c r="Q5" s="531"/>
+      <c r="R5" s="531"/>
+      <c r="S5" s="531"/>
+      <c r="T5" s="531"/>
+      <c r="U5" s="531"/>
+      <c r="V5" s="531"/>
+      <c r="W5" s="531"/>
+      <c r="X5" s="531"/>
+      <c r="Y5" s="531"/>
+      <c r="Z5" s="531"/>
+      <c r="AA5" s="531"/>
+      <c r="AB5" s="531"/>
+      <c r="AC5" s="531"/>
+      <c r="AD5" s="531"/>
+      <c r="AE5" s="531"/>
+      <c r="AF5" s="531"/>
+      <c r="AG5" s="531"/>
+      <c r="AH5" s="532"/>
+      <c r="AI5" s="536" t="s">
         <v>210</v>
       </c>
-      <c r="AJ5" s="511"/>
-      <c r="AK5" s="512"/>
-      <c r="AL5" s="513" t="s">
+      <c r="AJ5" s="537"/>
+      <c r="AK5" s="538"/>
+      <c r="AL5" s="539" t="s">
         <v>211</v>
       </c>
-      <c r="AM5" s="514"/>
-      <c r="AN5" s="514"/>
-      <c r="AO5" s="501" t="s">
+      <c r="AM5" s="540"/>
+      <c r="AN5" s="540"/>
+      <c r="AO5" s="541" t="s">
         <v>212</v>
       </c>
-      <c r="AP5" s="515" t="s">
+      <c r="AP5" s="544" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="406" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A6" s="499"/>
-      <c r="B6" s="500"/>
-      <c r="C6" s="499"/>
-      <c r="D6" s="507"/>
-      <c r="E6" s="508"/>
-      <c r="F6" s="508"/>
-      <c r="G6" s="508"/>
-      <c r="H6" s="508"/>
-      <c r="I6" s="508"/>
-      <c r="J6" s="508"/>
-      <c r="K6" s="508"/>
-      <c r="L6" s="508"/>
-      <c r="M6" s="508"/>
-      <c r="N6" s="508"/>
-      <c r="O6" s="508"/>
-      <c r="P6" s="508"/>
-      <c r="Q6" s="508"/>
-      <c r="R6" s="508"/>
-      <c r="S6" s="508"/>
-      <c r="T6" s="508"/>
-      <c r="U6" s="508"/>
-      <c r="V6" s="508"/>
-      <c r="W6" s="508"/>
-      <c r="X6" s="508"/>
-      <c r="Y6" s="508"/>
-      <c r="Z6" s="508"/>
-      <c r="AA6" s="508"/>
-      <c r="AB6" s="508"/>
-      <c r="AC6" s="508"/>
-      <c r="AD6" s="508"/>
-      <c r="AE6" s="508"/>
-      <c r="AF6" s="508"/>
-      <c r="AG6" s="508"/>
-      <c r="AH6" s="509"/>
-      <c r="AI6" s="518" t="s">
+      <c r="A6" s="528"/>
+      <c r="B6" s="529"/>
+      <c r="C6" s="528"/>
+      <c r="D6" s="533"/>
+      <c r="E6" s="534"/>
+      <c r="F6" s="534"/>
+      <c r="G6" s="534"/>
+      <c r="H6" s="534"/>
+      <c r="I6" s="534"/>
+      <c r="J6" s="534"/>
+      <c r="K6" s="534"/>
+      <c r="L6" s="534"/>
+      <c r="M6" s="534"/>
+      <c r="N6" s="534"/>
+      <c r="O6" s="534"/>
+      <c r="P6" s="534"/>
+      <c r="Q6" s="534"/>
+      <c r="R6" s="534"/>
+      <c r="S6" s="534"/>
+      <c r="T6" s="534"/>
+      <c r="U6" s="534"/>
+      <c r="V6" s="534"/>
+      <c r="W6" s="534"/>
+      <c r="X6" s="534"/>
+      <c r="Y6" s="534"/>
+      <c r="Z6" s="534"/>
+      <c r="AA6" s="534"/>
+      <c r="AB6" s="534"/>
+      <c r="AC6" s="534"/>
+      <c r="AD6" s="534"/>
+      <c r="AE6" s="534"/>
+      <c r="AF6" s="534"/>
+      <c r="AG6" s="534"/>
+      <c r="AH6" s="535"/>
+      <c r="AI6" s="547" t="s">
         <v>253</v>
       </c>
       <c r="AJ6" s="521" t="s">
@@ -8565,7 +8565,7 @@
       <c r="AK6" s="521" t="s">
         <v>214</v>
       </c>
-      <c r="AL6" s="524" t="s">
+      <c r="AL6" s="518" t="s">
         <v>243</v>
       </c>
       <c r="AM6" s="521" t="s">
@@ -8574,13 +8574,13 @@
       <c r="AN6" s="521" t="s">
         <v>215</v>
       </c>
-      <c r="AO6" s="502"/>
-      <c r="AP6" s="516"/>
-    </row>
-    <row r="7" spans="1:50" s="406" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A7" s="499"/>
-      <c r="B7" s="500"/>
-      <c r="C7" s="499"/>
+      <c r="AO6" s="542"/>
+      <c r="AP6" s="545"/>
+    </row>
+    <row r="7" spans="1:50" s="406" customFormat="1" ht="31.8" customHeight="1">
+      <c r="A7" s="528"/>
+      <c r="B7" s="529"/>
+      <c r="C7" s="528"/>
       <c r="D7" s="445">
         <v>45992</v>
       </c>
@@ -8704,19 +8704,19 @@
         <f t="shared" si="0"/>
         <v>46022</v>
       </c>
-      <c r="AI7" s="519"/>
+      <c r="AI7" s="548"/>
       <c r="AJ7" s="522"/>
       <c r="AK7" s="522"/>
-      <c r="AL7" s="525"/>
+      <c r="AL7" s="519"/>
       <c r="AM7" s="522"/>
       <c r="AN7" s="522"/>
-      <c r="AO7" s="502"/>
-      <c r="AP7" s="516"/>
-    </row>
-    <row r="8" spans="1:50" s="406" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="499"/>
-      <c r="B8" s="500"/>
-      <c r="C8" s="499"/>
+      <c r="AO7" s="542"/>
+      <c r="AP7" s="545"/>
+    </row>
+    <row r="8" spans="1:50" s="406" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="528"/>
+      <c r="B8" s="529"/>
+      <c r="C8" s="528"/>
       <c r="D8" s="408" t="str">
         <f>IF("T"&amp;(WEEKDAY(D7))="T1","CN","T"&amp;(WEEKDAY(D7)))</f>
         <v>T2</v>
@@ -8841,14 +8841,14 @@
         <f t="shared" si="1"/>
         <v>T4</v>
       </c>
-      <c r="AI8" s="520"/>
+      <c r="AI8" s="549"/>
       <c r="AJ8" s="523"/>
       <c r="AK8" s="523"/>
-      <c r="AL8" s="526"/>
+      <c r="AL8" s="520"/>
       <c r="AM8" s="523"/>
       <c r="AN8" s="523"/>
-      <c r="AO8" s="503"/>
-      <c r="AP8" s="517"/>
+      <c r="AO8" s="543"/>
+      <c r="AP8" s="546"/>
     </row>
     <row r="9" spans="1:50" s="406" customFormat="1" ht="19.8" customHeight="1">
       <c r="A9" s="410">
@@ -8979,13 +8979,13 @@
       </c>
     </row>
     <row r="10" spans="1:50" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A10" s="527">
+      <c r="A10" s="495">
         <v>1</v>
       </c>
-      <c r="B10" s="536" t="s">
+      <c r="B10" s="512" t="s">
         <v>266</v>
       </c>
-      <c r="C10" s="537" t="s">
+      <c r="C10" s="513" t="s">
         <v>267</v>
       </c>
       <c r="D10" s="421" t="s">
@@ -9109,12 +9109,12 @@
         <f>COUNTIF(D10:AH10,"X")+COUNTIF(D10:AH10,"1/2")/2+COUNTIF(D10:AH10,"1/p")/2+COUNTIF(D10:AH10,"ĐH")</f>
         <v>21</v>
       </c>
-      <c r="AP10" s="527"/>
+      <c r="AP10" s="495"/>
     </row>
     <row r="11" spans="1:50" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A11" s="528"/>
-      <c r="B11" s="533"/>
-      <c r="C11" s="538"/>
+      <c r="A11" s="496"/>
+      <c r="B11" s="509"/>
+      <c r="C11" s="514"/>
       <c r="D11" s="427"/>
       <c r="E11" s="427"/>
       <c r="F11" s="427"/>
@@ -9156,16 +9156,16 @@
       <c r="AM11" s="411"/>
       <c r="AN11" s="411"/>
       <c r="AO11" s="413"/>
-      <c r="AP11" s="528"/>
+      <c r="AP11" s="496"/>
     </row>
     <row r="12" spans="1:50" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A12" s="527">
+      <c r="A12" s="495">
         <v>3</v>
       </c>
-      <c r="B12" s="529" t="s">
+      <c r="B12" s="515" t="s">
         <v>311</v>
       </c>
-      <c r="C12" s="531" t="s">
+      <c r="C12" s="517" t="s">
         <v>268</v>
       </c>
       <c r="D12" s="421" t="s">
@@ -9289,12 +9289,12 @@
         <f t="shared" ref="AO12" si="10">COUNTIF(D12:AH12,"X")+COUNTIF(D12:AH12,"1/2")/2+COUNTIF(D12:AH12,"1/p")/2+COUNTIF(D12:AH12,"ĐH")</f>
         <v>27</v>
       </c>
-      <c r="AP12" s="527"/>
+      <c r="AP12" s="495"/>
     </row>
     <row r="13" spans="1:50" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A13" s="528"/>
-      <c r="B13" s="530"/>
-      <c r="C13" s="531"/>
+      <c r="A13" s="496"/>
+      <c r="B13" s="516"/>
+      <c r="C13" s="517"/>
       <c r="D13" s="427"/>
       <c r="E13" s="427"/>
       <c r="F13" s="427"/>
@@ -9333,16 +9333,16 @@
       <c r="AM13" s="411"/>
       <c r="AN13" s="411"/>
       <c r="AO13" s="413"/>
-      <c r="AP13" s="528"/>
+      <c r="AP13" s="496"/>
     </row>
     <row r="14" spans="1:50" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A14" s="527">
+      <c r="A14" s="495">
         <v>4</v>
       </c>
-      <c r="B14" s="532" t="s">
+      <c r="B14" s="508" t="s">
         <v>261</v>
       </c>
-      <c r="C14" s="527" t="s">
+      <c r="C14" s="495" t="s">
         <v>269</v>
       </c>
       <c r="D14" s="421" t="s">
@@ -9466,12 +9466,12 @@
         <f>COUNTIF(D14:AH14,"X")+COUNTIF(D14:AH14,"1/2")/2+COUNTIF(D14:AH14,"1/p")/2+COUNTIF(D14:AH14,"ĐH")</f>
         <v>11</v>
       </c>
-      <c r="AP14" s="527"/>
+      <c r="AP14" s="495"/>
     </row>
     <row r="15" spans="1:50" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A15" s="528"/>
-      <c r="B15" s="533"/>
-      <c r="C15" s="528"/>
+      <c r="A15" s="496"/>
+      <c r="B15" s="509"/>
+      <c r="C15" s="496"/>
       <c r="D15" s="427"/>
       <c r="E15" s="421"/>
       <c r="F15" s="421"/>
@@ -9510,16 +9510,16 @@
       <c r="AM15" s="411"/>
       <c r="AN15" s="411"/>
       <c r="AO15" s="413"/>
-      <c r="AP15" s="528"/>
+      <c r="AP15" s="496"/>
     </row>
     <row r="16" spans="1:50" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A16" s="527">
+      <c r="A16" s="495">
         <v>5</v>
       </c>
-      <c r="B16" s="532" t="s">
+      <c r="B16" s="508" t="s">
         <v>332</v>
       </c>
-      <c r="C16" s="527" t="s">
+      <c r="C16" s="495" t="s">
         <v>269</v>
       </c>
       <c r="D16" s="421"/>
@@ -9609,12 +9609,12 @@
         <f t="shared" ref="AO16" si="20">COUNTIF(D16:AH16,"X")+COUNTIF(D16:AH16,"1/2")/2+COUNTIF(D16:AH16,"1/p")/2+COUNTIF(D16:AH16,"ĐH")</f>
         <v>11</v>
       </c>
-      <c r="AP16" s="527"/>
+      <c r="AP16" s="495"/>
     </row>
     <row r="17" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A17" s="528"/>
-      <c r="B17" s="533"/>
-      <c r="C17" s="528"/>
+      <c r="A17" s="496"/>
+      <c r="B17" s="509"/>
+      <c r="C17" s="496"/>
       <c r="D17" s="427"/>
       <c r="E17" s="421"/>
       <c r="F17" s="421"/>
@@ -9653,16 +9653,16 @@
       <c r="AM17" s="411"/>
       <c r="AN17" s="411"/>
       <c r="AO17" s="413"/>
-      <c r="AP17" s="528"/>
+      <c r="AP17" s="496"/>
     </row>
     <row r="18" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A18" s="527">
+      <c r="A18" s="495">
         <v>6</v>
       </c>
-      <c r="B18" s="532" t="s">
+      <c r="B18" s="508" t="s">
         <v>292</v>
       </c>
-      <c r="C18" s="527" t="s">
+      <c r="C18" s="495" t="s">
         <v>270</v>
       </c>
       <c r="D18" s="421" t="s">
@@ -9786,12 +9786,12 @@
         <f>COUNTIF(D18:AH18,"X")+COUNTIF(D18:AH18,"1/2")/2+COUNTIF(D18:AH18,"1/p")/2+COUNTIF(D18:AH18,"ĐH")</f>
         <v>24</v>
       </c>
-      <c r="AP18" s="527"/>
+      <c r="AP18" s="495"/>
     </row>
     <row r="19" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A19" s="528"/>
-      <c r="B19" s="533"/>
-      <c r="C19" s="528"/>
+      <c r="A19" s="496"/>
+      <c r="B19" s="509"/>
+      <c r="C19" s="496"/>
       <c r="D19" s="427"/>
       <c r="E19" s="421"/>
       <c r="F19" s="421"/>
@@ -9830,16 +9830,16 @@
       <c r="AM19" s="411"/>
       <c r="AN19" s="411"/>
       <c r="AO19" s="413"/>
-      <c r="AP19" s="528"/>
+      <c r="AP19" s="496"/>
     </row>
     <row r="20" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A20" s="527">
+      <c r="A20" s="495">
         <v>7</v>
       </c>
-      <c r="B20" s="532" t="s">
+      <c r="B20" s="508" t="s">
         <v>304</v>
       </c>
-      <c r="C20" s="527" t="s">
+      <c r="C20" s="495" t="s">
         <v>274</v>
       </c>
       <c r="D20" s="421" t="s">
@@ -9963,12 +9963,12 @@
         <f>COUNTIF(D20:AH20,"X")+COUNTIF(D20:AH20,"1/2")/2+COUNTIF(D20:AH20,"1/p")/2+COUNTIF(D20:AH20,"ĐH")</f>
         <v>27</v>
       </c>
-      <c r="AP20" s="534"/>
+      <c r="AP20" s="510"/>
     </row>
     <row r="21" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A21" s="528"/>
-      <c r="B21" s="533"/>
-      <c r="C21" s="528"/>
+      <c r="A21" s="496"/>
+      <c r="B21" s="509"/>
+      <c r="C21" s="496"/>
       <c r="D21" s="442"/>
       <c r="E21" s="427"/>
       <c r="F21" s="427"/>
@@ -10007,16 +10007,16 @@
       <c r="AM21" s="411"/>
       <c r="AN21" s="411"/>
       <c r="AO21" s="413"/>
-      <c r="AP21" s="535"/>
+      <c r="AP21" s="511"/>
     </row>
     <row r="22" spans="1:42" s="414" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A22" s="527">
+      <c r="A22" s="495">
         <v>8</v>
       </c>
-      <c r="B22" s="539" t="s">
+      <c r="B22" s="498" t="s">
         <v>327</v>
       </c>
-      <c r="C22" s="541" t="s">
+      <c r="C22" s="500" t="s">
         <v>322</v>
       </c>
       <c r="D22" s="421" t="s">
@@ -10138,12 +10138,12 @@
         <f>COUNTIF(D22:AH22,"X")+COUNTIF(D22:AH22,"1/2")/2+COUNTIF(D22:AH22,"1/p")/2+COUNTIF(D22:AH22,"ĐH")</f>
         <v>25</v>
       </c>
-      <c r="AP22" s="527"/>
+      <c r="AP22" s="495"/>
     </row>
     <row r="23" spans="1:42" s="414" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A23" s="528"/>
-      <c r="B23" s="540"/>
-      <c r="C23" s="542"/>
+      <c r="A23" s="496"/>
+      <c r="B23" s="499"/>
+      <c r="C23" s="501"/>
       <c r="D23" s="421"/>
       <c r="E23" s="421"/>
       <c r="F23" s="421"/>
@@ -10182,52 +10182,52 @@
       <c r="AM23" s="411"/>
       <c r="AN23" s="411"/>
       <c r="AO23" s="413"/>
-      <c r="AP23" s="528"/>
+      <c r="AP23" s="496"/>
     </row>
     <row r="24" spans="1:42" s="414" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A24" s="543" t="s">
+      <c r="A24" s="502" t="s">
         <v>202</v>
       </c>
-      <c r="B24" s="544"/>
-      <c r="C24" s="545"/>
-      <c r="D24" s="546"/>
-      <c r="E24" s="547"/>
-      <c r="F24" s="547"/>
-      <c r="G24" s="547"/>
-      <c r="H24" s="547"/>
-      <c r="I24" s="547"/>
-      <c r="J24" s="547"/>
-      <c r="K24" s="547"/>
-      <c r="L24" s="547"/>
-      <c r="M24" s="547"/>
-      <c r="N24" s="547"/>
-      <c r="O24" s="547"/>
-      <c r="P24" s="547"/>
-      <c r="Q24" s="547"/>
-      <c r="R24" s="547"/>
-      <c r="S24" s="547"/>
-      <c r="T24" s="547"/>
-      <c r="U24" s="547"/>
-      <c r="V24" s="547"/>
-      <c r="W24" s="547"/>
-      <c r="X24" s="547"/>
-      <c r="Y24" s="547"/>
-      <c r="Z24" s="547"/>
-      <c r="AA24" s="547"/>
-      <c r="AB24" s="547"/>
-      <c r="AC24" s="547"/>
-      <c r="AD24" s="547"/>
-      <c r="AE24" s="547"/>
-      <c r="AF24" s="547"/>
-      <c r="AG24" s="547"/>
-      <c r="AH24" s="547"/>
-      <c r="AI24" s="547"/>
-      <c r="AJ24" s="547"/>
-      <c r="AK24" s="547"/>
-      <c r="AL24" s="547"/>
-      <c r="AM24" s="547"/>
-      <c r="AN24" s="547"/>
-      <c r="AO24" s="548"/>
+      <c r="B24" s="503"/>
+      <c r="C24" s="504"/>
+      <c r="D24" s="505"/>
+      <c r="E24" s="506"/>
+      <c r="F24" s="506"/>
+      <c r="G24" s="506"/>
+      <c r="H24" s="506"/>
+      <c r="I24" s="506"/>
+      <c r="J24" s="506"/>
+      <c r="K24" s="506"/>
+      <c r="L24" s="506"/>
+      <c r="M24" s="506"/>
+      <c r="N24" s="506"/>
+      <c r="O24" s="506"/>
+      <c r="P24" s="506"/>
+      <c r="Q24" s="506"/>
+      <c r="R24" s="506"/>
+      <c r="S24" s="506"/>
+      <c r="T24" s="506"/>
+      <c r="U24" s="506"/>
+      <c r="V24" s="506"/>
+      <c r="W24" s="506"/>
+      <c r="X24" s="506"/>
+      <c r="Y24" s="506"/>
+      <c r="Z24" s="506"/>
+      <c r="AA24" s="506"/>
+      <c r="AB24" s="506"/>
+      <c r="AC24" s="506"/>
+      <c r="AD24" s="506"/>
+      <c r="AE24" s="506"/>
+      <c r="AF24" s="506"/>
+      <c r="AG24" s="506"/>
+      <c r="AH24" s="506"/>
+      <c r="AI24" s="506"/>
+      <c r="AJ24" s="506"/>
+      <c r="AK24" s="506"/>
+      <c r="AL24" s="506"/>
+      <c r="AM24" s="506"/>
+      <c r="AN24" s="506"/>
+      <c r="AO24" s="507"/>
       <c r="AP24" s="421"/>
     </row>
     <row r="25" spans="1:42" s="414" customFormat="1" ht="20.25" customHeight="1">
@@ -10287,14 +10287,14 @@
       <c r="L26" s="419"/>
       <c r="M26" s="419"/>
       <c r="N26" s="419"/>
-      <c r="S26" s="549" t="s">
+      <c r="S26" s="497" t="s">
         <v>262</v>
       </c>
-      <c r="T26" s="549"/>
-      <c r="U26" s="549"/>
-      <c r="V26" s="549"/>
-      <c r="W26" s="549"/>
-      <c r="X26" s="549"/>
+      <c r="T26" s="497"/>
+      <c r="U26" s="497"/>
+      <c r="V26" s="497"/>
+      <c r="W26" s="497"/>
+      <c r="X26" s="497"/>
       <c r="Y26" s="419"/>
       <c r="Z26" s="419"/>
       <c r="AA26" s="419"/>
@@ -10311,10 +10311,10 @@
       <c r="AL26" s="381"/>
       <c r="AM26" s="381"/>
       <c r="AN26" s="381"/>
-      <c r="AO26" s="549" t="s">
+      <c r="AO26" s="497" t="s">
         <v>317</v>
       </c>
-      <c r="AP26" s="549"/>
+      <c r="AP26" s="497"/>
     </row>
     <row r="27" spans="1:42" s="380" customFormat="1" ht="20.25" customHeight="1">
       <c r="A27" s="83"/>
@@ -10450,14 +10450,14 @@
       <c r="L30" s="391"/>
       <c r="M30" s="391"/>
       <c r="N30" s="391"/>
-      <c r="S30" s="465" t="s">
+      <c r="S30" s="459" t="s">
         <v>319</v>
       </c>
-      <c r="T30" s="465"/>
-      <c r="U30" s="465"/>
-      <c r="V30" s="465"/>
-      <c r="W30" s="465"/>
-      <c r="X30" s="465"/>
+      <c r="T30" s="459"/>
+      <c r="U30" s="459"/>
+      <c r="V30" s="459"/>
+      <c r="W30" s="459"/>
+      <c r="X30" s="459"/>
       <c r="Y30" s="391"/>
       <c r="Z30" s="391"/>
       <c r="AA30" s="391"/>
@@ -10474,10 +10474,10 @@
       <c r="AL30" s="399"/>
       <c r="AM30" s="395"/>
       <c r="AN30" s="395"/>
-      <c r="AO30" s="465" t="s">
+      <c r="AO30" s="459" t="s">
         <v>320</v>
       </c>
-      <c r="AP30" s="465"/>
+      <c r="AP30" s="459"/>
     </row>
     <row r="31" spans="1:42" s="380" customFormat="1" ht="20.25" customHeight="1">
       <c r="A31" s="382"/>
@@ -11218,18 +11218,30 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AP16:AP17"/>
-    <mergeCell ref="S26:X26"/>
-    <mergeCell ref="AO26:AP26"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="AO30:AP30"/>
-    <mergeCell ref="AP18:AP19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="AP22:AP23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:AO24"/>
+    <mergeCell ref="AI6:AI8"/>
+    <mergeCell ref="AJ6:AJ8"/>
+    <mergeCell ref="AK6:AK8"/>
+    <mergeCell ref="AL6:AL8"/>
+    <mergeCell ref="AM6:AM8"/>
+    <mergeCell ref="AN6:AN8"/>
+    <mergeCell ref="AP10:AP11"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:AP4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:AH6"/>
+    <mergeCell ref="AI5:AK5"/>
+    <mergeCell ref="AL5:AN5"/>
+    <mergeCell ref="AO5:AO8"/>
+    <mergeCell ref="AP5:AP8"/>
+    <mergeCell ref="AP14:AP15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="AP12:AP13"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
@@ -11246,30 +11258,18 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="AP14:AP15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="AL6:AL8"/>
-    <mergeCell ref="AM6:AM8"/>
-    <mergeCell ref="AN6:AN8"/>
-    <mergeCell ref="AP10:AP11"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:AP4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:AH6"/>
-    <mergeCell ref="AI5:AK5"/>
-    <mergeCell ref="AL5:AN5"/>
-    <mergeCell ref="AO5:AO8"/>
-    <mergeCell ref="AP5:AP8"/>
-    <mergeCell ref="AI6:AI8"/>
-    <mergeCell ref="AJ6:AJ8"/>
-    <mergeCell ref="AK6:AK8"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="AP22:AP23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:AO24"/>
+    <mergeCell ref="AP16:AP17"/>
+    <mergeCell ref="S26:X26"/>
+    <mergeCell ref="AO26:AP26"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="AO30:AP30"/>
+    <mergeCell ref="AP18:AP19"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11285,7 +11285,7 @@
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="AO10" sqref="AO10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -11354,19 +11354,19 @@
       <c r="AP1" s="433"/>
     </row>
     <row r="2" spans="1:50" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="495" t="s">
+      <c r="A2" s="524" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="495"/>
-      <c r="C2" s="495"/>
-      <c r="D2" s="495"/>
-      <c r="E2" s="495"/>
-      <c r="F2" s="495"/>
-      <c r="G2" s="495"/>
-      <c r="H2" s="495"/>
-      <c r="I2" s="495"/>
-      <c r="J2" s="495"/>
-      <c r="K2" s="495"/>
+      <c r="B2" s="524"/>
+      <c r="C2" s="524"/>
+      <c r="D2" s="524"/>
+      <c r="E2" s="524"/>
+      <c r="F2" s="524"/>
+      <c r="G2" s="524"/>
+      <c r="H2" s="524"/>
+      <c r="I2" s="524"/>
+      <c r="J2" s="524"/>
+      <c r="K2" s="524"/>
       <c r="L2" s="402"/>
       <c r="M2" s="403"/>
       <c r="N2" s="403"/>
@@ -11408,18 +11408,18 @@
       <c r="AX2" s="103"/>
     </row>
     <row r="3" spans="1:50" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="496" t="s">
+      <c r="A3" s="525" t="s">
         <v>271</v>
       </c>
-      <c r="B3" s="496"/>
-      <c r="C3" s="496"/>
-      <c r="D3" s="496"/>
-      <c r="E3" s="496"/>
-      <c r="F3" s="496"/>
-      <c r="G3" s="496"/>
-      <c r="H3" s="496"/>
-      <c r="I3" s="496"/>
-      <c r="J3" s="496"/>
+      <c r="B3" s="525"/>
+      <c r="C3" s="525"/>
+      <c r="D3" s="525"/>
+      <c r="E3" s="525"/>
+      <c r="F3" s="525"/>
+      <c r="G3" s="525"/>
+      <c r="H3" s="525"/>
+      <c r="I3" s="525"/>
+      <c r="J3" s="525"/>
       <c r="K3" s="404"/>
       <c r="L3" s="404"/>
       <c r="M3" s="405"/>
@@ -11454,148 +11454,148 @@
       <c r="AP3" s="402"/>
     </row>
     <row r="4" spans="1:50" s="328" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A4" s="498" t="str">
+      <c r="A4" s="527" t="str">
         <f>"BẢNG CHẤM CÔNG BỘ PHẬN KỸ THUẬT THÁNG "&amp;TEXT(MONTH($D$7),"00")&amp;" NĂM 2025"</f>
         <v>BẢNG CHẤM CÔNG BỘ PHẬN KỸ THUẬT THÁNG 12 NĂM 2025</v>
       </c>
-      <c r="B4" s="498"/>
-      <c r="C4" s="498"/>
-      <c r="D4" s="498"/>
-      <c r="E4" s="498"/>
-      <c r="F4" s="498"/>
-      <c r="G4" s="498"/>
-      <c r="H4" s="498"/>
-      <c r="I4" s="498"/>
-      <c r="J4" s="498"/>
-      <c r="K4" s="498"/>
-      <c r="L4" s="498"/>
-      <c r="M4" s="498"/>
-      <c r="N4" s="498"/>
-      <c r="O4" s="498"/>
-      <c r="P4" s="498"/>
-      <c r="Q4" s="498"/>
-      <c r="R4" s="498"/>
-      <c r="S4" s="498"/>
-      <c r="T4" s="498"/>
-      <c r="U4" s="498"/>
-      <c r="V4" s="498"/>
-      <c r="W4" s="498"/>
-      <c r="X4" s="498"/>
-      <c r="Y4" s="498"/>
-      <c r="Z4" s="498"/>
-      <c r="AA4" s="498"/>
-      <c r="AB4" s="498"/>
-      <c r="AC4" s="498"/>
-      <c r="AD4" s="498"/>
-      <c r="AE4" s="498"/>
-      <c r="AF4" s="498"/>
-      <c r="AG4" s="498"/>
-      <c r="AH4" s="498"/>
-      <c r="AI4" s="498"/>
-      <c r="AJ4" s="498"/>
-      <c r="AK4" s="498"/>
-      <c r="AL4" s="498"/>
-      <c r="AM4" s="498"/>
-      <c r="AN4" s="498"/>
-      <c r="AO4" s="498"/>
-      <c r="AP4" s="498"/>
+      <c r="B4" s="527"/>
+      <c r="C4" s="527"/>
+      <c r="D4" s="527"/>
+      <c r="E4" s="527"/>
+      <c r="F4" s="527"/>
+      <c r="G4" s="527"/>
+      <c r="H4" s="527"/>
+      <c r="I4" s="527"/>
+      <c r="J4" s="527"/>
+      <c r="K4" s="527"/>
+      <c r="L4" s="527"/>
+      <c r="M4" s="527"/>
+      <c r="N4" s="527"/>
+      <c r="O4" s="527"/>
+      <c r="P4" s="527"/>
+      <c r="Q4" s="527"/>
+      <c r="R4" s="527"/>
+      <c r="S4" s="527"/>
+      <c r="T4" s="527"/>
+      <c r="U4" s="527"/>
+      <c r="V4" s="527"/>
+      <c r="W4" s="527"/>
+      <c r="X4" s="527"/>
+      <c r="Y4" s="527"/>
+      <c r="Z4" s="527"/>
+      <c r="AA4" s="527"/>
+      <c r="AB4" s="527"/>
+      <c r="AC4" s="527"/>
+      <c r="AD4" s="527"/>
+      <c r="AE4" s="527"/>
+      <c r="AF4" s="527"/>
+      <c r="AG4" s="527"/>
+      <c r="AH4" s="527"/>
+      <c r="AI4" s="527"/>
+      <c r="AJ4" s="527"/>
+      <c r="AK4" s="527"/>
+      <c r="AL4" s="527"/>
+      <c r="AM4" s="527"/>
+      <c r="AN4" s="527"/>
+      <c r="AO4" s="527"/>
+      <c r="AP4" s="527"/>
     </row>
     <row r="5" spans="1:50" ht="20.25" customHeight="1">
-      <c r="A5" s="556" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="557" t="s">
+      <c r="A5" s="554" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="555" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="556" t="s">
+      <c r="C5" s="554" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="558" t="s">
+      <c r="D5" s="556" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="559"/>
-      <c r="F5" s="559"/>
-      <c r="G5" s="559"/>
-      <c r="H5" s="559"/>
-      <c r="I5" s="559"/>
-      <c r="J5" s="559"/>
-      <c r="K5" s="559"/>
-      <c r="L5" s="559"/>
-      <c r="M5" s="559"/>
-      <c r="N5" s="559"/>
-      <c r="O5" s="559"/>
-      <c r="P5" s="559"/>
-      <c r="Q5" s="559"/>
-      <c r="R5" s="559"/>
-      <c r="S5" s="559"/>
-      <c r="T5" s="559"/>
-      <c r="U5" s="559"/>
-      <c r="V5" s="559"/>
-      <c r="W5" s="559"/>
-      <c r="X5" s="559"/>
-      <c r="Y5" s="559"/>
-      <c r="Z5" s="559"/>
-      <c r="AA5" s="559"/>
-      <c r="AB5" s="559"/>
-      <c r="AC5" s="559"/>
-      <c r="AD5" s="559"/>
-      <c r="AE5" s="559"/>
-      <c r="AF5" s="559"/>
-      <c r="AG5" s="559"/>
-      <c r="AH5" s="560"/>
-      <c r="AI5" s="510" t="s">
+      <c r="E5" s="557"/>
+      <c r="F5" s="557"/>
+      <c r="G5" s="557"/>
+      <c r="H5" s="557"/>
+      <c r="I5" s="557"/>
+      <c r="J5" s="557"/>
+      <c r="K5" s="557"/>
+      <c r="L5" s="557"/>
+      <c r="M5" s="557"/>
+      <c r="N5" s="557"/>
+      <c r="O5" s="557"/>
+      <c r="P5" s="557"/>
+      <c r="Q5" s="557"/>
+      <c r="R5" s="557"/>
+      <c r="S5" s="557"/>
+      <c r="T5" s="557"/>
+      <c r="U5" s="557"/>
+      <c r="V5" s="557"/>
+      <c r="W5" s="557"/>
+      <c r="X5" s="557"/>
+      <c r="Y5" s="557"/>
+      <c r="Z5" s="557"/>
+      <c r="AA5" s="557"/>
+      <c r="AB5" s="557"/>
+      <c r="AC5" s="557"/>
+      <c r="AD5" s="557"/>
+      <c r="AE5" s="557"/>
+      <c r="AF5" s="557"/>
+      <c r="AG5" s="557"/>
+      <c r="AH5" s="558"/>
+      <c r="AI5" s="536" t="s">
         <v>210</v>
       </c>
-      <c r="AJ5" s="511"/>
-      <c r="AK5" s="512"/>
-      <c r="AL5" s="513" t="s">
+      <c r="AJ5" s="537"/>
+      <c r="AK5" s="538"/>
+      <c r="AL5" s="539" t="s">
         <v>211</v>
       </c>
-      <c r="AM5" s="514"/>
-      <c r="AN5" s="514"/>
-      <c r="AO5" s="501" t="s">
+      <c r="AM5" s="540"/>
+      <c r="AN5" s="540"/>
+      <c r="AO5" s="541" t="s">
         <v>212</v>
       </c>
-      <c r="AP5" s="515" t="s">
+      <c r="AP5" s="544" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="406" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A6" s="556"/>
-      <c r="B6" s="557"/>
-      <c r="C6" s="556"/>
-      <c r="D6" s="561"/>
-      <c r="E6" s="562"/>
-      <c r="F6" s="562"/>
-      <c r="G6" s="562"/>
-      <c r="H6" s="562"/>
-      <c r="I6" s="562"/>
-      <c r="J6" s="562"/>
-      <c r="K6" s="562"/>
-      <c r="L6" s="562"/>
-      <c r="M6" s="562"/>
-      <c r="N6" s="562"/>
-      <c r="O6" s="562"/>
-      <c r="P6" s="562"/>
-      <c r="Q6" s="562"/>
-      <c r="R6" s="562"/>
-      <c r="S6" s="562"/>
-      <c r="T6" s="562"/>
-      <c r="U6" s="562"/>
-      <c r="V6" s="562"/>
-      <c r="W6" s="562"/>
-      <c r="X6" s="562"/>
-      <c r="Y6" s="562"/>
-      <c r="Z6" s="562"/>
-      <c r="AA6" s="562"/>
-      <c r="AB6" s="562"/>
-      <c r="AC6" s="562"/>
-      <c r="AD6" s="562"/>
-      <c r="AE6" s="562"/>
-      <c r="AF6" s="562"/>
-      <c r="AG6" s="562"/>
-      <c r="AH6" s="563"/>
-      <c r="AI6" s="518" t="s">
+      <c r="A6" s="554"/>
+      <c r="B6" s="555"/>
+      <c r="C6" s="554"/>
+      <c r="D6" s="559"/>
+      <c r="E6" s="560"/>
+      <c r="F6" s="560"/>
+      <c r="G6" s="560"/>
+      <c r="H6" s="560"/>
+      <c r="I6" s="560"/>
+      <c r="J6" s="560"/>
+      <c r="K6" s="560"/>
+      <c r="L6" s="560"/>
+      <c r="M6" s="560"/>
+      <c r="N6" s="560"/>
+      <c r="O6" s="560"/>
+      <c r="P6" s="560"/>
+      <c r="Q6" s="560"/>
+      <c r="R6" s="560"/>
+      <c r="S6" s="560"/>
+      <c r="T6" s="560"/>
+      <c r="U6" s="560"/>
+      <c r="V6" s="560"/>
+      <c r="W6" s="560"/>
+      <c r="X6" s="560"/>
+      <c r="Y6" s="560"/>
+      <c r="Z6" s="560"/>
+      <c r="AA6" s="560"/>
+      <c r="AB6" s="560"/>
+      <c r="AC6" s="560"/>
+      <c r="AD6" s="560"/>
+      <c r="AE6" s="560"/>
+      <c r="AF6" s="560"/>
+      <c r="AG6" s="560"/>
+      <c r="AH6" s="561"/>
+      <c r="AI6" s="547" t="s">
         <v>253</v>
       </c>
       <c r="AJ6" s="521" t="s">
@@ -11604,7 +11604,7 @@
       <c r="AK6" s="521" t="s">
         <v>214</v>
       </c>
-      <c r="AL6" s="524" t="s">
+      <c r="AL6" s="518" t="s">
         <v>243</v>
       </c>
       <c r="AM6" s="521" t="s">
@@ -11613,13 +11613,13 @@
       <c r="AN6" s="521" t="s">
         <v>215</v>
       </c>
-      <c r="AO6" s="502"/>
-      <c r="AP6" s="516"/>
+      <c r="AO6" s="542"/>
+      <c r="AP6" s="545"/>
     </row>
     <row r="7" spans="1:50" s="406" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A7" s="556"/>
-      <c r="B7" s="557"/>
-      <c r="C7" s="556"/>
+      <c r="A7" s="554"/>
+      <c r="B7" s="555"/>
+      <c r="C7" s="554"/>
       <c r="D7" s="445">
         <v>45992</v>
       </c>
@@ -11743,19 +11743,19 @@
         <f t="shared" si="0"/>
         <v>46022</v>
       </c>
-      <c r="AI7" s="519"/>
+      <c r="AI7" s="548"/>
       <c r="AJ7" s="522"/>
       <c r="AK7" s="522"/>
-      <c r="AL7" s="525"/>
+      <c r="AL7" s="519"/>
       <c r="AM7" s="522"/>
       <c r="AN7" s="522"/>
-      <c r="AO7" s="502"/>
-      <c r="AP7" s="516"/>
+      <c r="AO7" s="542"/>
+      <c r="AP7" s="545"/>
     </row>
     <row r="8" spans="1:50" s="406" customFormat="1" ht="27" customHeight="1">
-      <c r="A8" s="556"/>
-      <c r="B8" s="557"/>
-      <c r="C8" s="556"/>
+      <c r="A8" s="554"/>
+      <c r="B8" s="555"/>
+      <c r="C8" s="554"/>
       <c r="D8" s="408" t="str">
         <f>IF("T"&amp;(WEEKDAY(D7))="T1","CN","T"&amp;(WEEKDAY(D7)))</f>
         <v>T2</v>
@@ -11880,14 +11880,14 @@
         <f t="shared" si="1"/>
         <v>T4</v>
       </c>
-      <c r="AI8" s="520"/>
+      <c r="AI8" s="549"/>
       <c r="AJ8" s="523"/>
       <c r="AK8" s="523"/>
-      <c r="AL8" s="526"/>
+      <c r="AL8" s="520"/>
       <c r="AM8" s="523"/>
       <c r="AN8" s="523"/>
-      <c r="AO8" s="503"/>
-      <c r="AP8" s="517"/>
+      <c r="AO8" s="543"/>
+      <c r="AP8" s="546"/>
     </row>
     <row r="9" spans="1:50" s="406" customFormat="1" ht="11.25" customHeight="1">
       <c r="A9" s="410">
@@ -12018,13 +12018,13 @@
       </c>
     </row>
     <row r="10" spans="1:50" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A10" s="527">
+      <c r="A10" s="495">
         <v>1</v>
       </c>
-      <c r="B10" s="532" t="s">
+      <c r="B10" s="508" t="s">
         <v>272</v>
       </c>
-      <c r="C10" s="541" t="s">
+      <c r="C10" s="500" t="s">
         <v>275</v>
       </c>
       <c r="D10" s="421" t="s">
@@ -12148,12 +12148,12 @@
         <f>COUNTIF(D10:AH10,"X")+COUNTIF(D10:AH10,"1/2")/2+COUNTIF(D10:AH10,"1/p")/2+COUNTIF(D10:AH10,"ĐH")</f>
         <v>27</v>
       </c>
-      <c r="AP10" s="527"/>
+      <c r="AP10" s="495"/>
     </row>
     <row r="11" spans="1:50" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A11" s="528"/>
-      <c r="B11" s="533"/>
-      <c r="C11" s="542"/>
+      <c r="A11" s="496"/>
+      <c r="B11" s="509"/>
+      <c r="C11" s="501"/>
       <c r="D11" s="421"/>
       <c r="E11" s="421">
         <v>12</v>
@@ -12228,16 +12228,16 @@
         <f t="shared" ref="AO11" si="3">COUNTIF(D11:AH11,"X")+COUNTIF(D11:AH11,"1/2")/2+COUNTIF(D11:AH11,"1/p")/2+COUNTIF(D11:AH11,"ĐH")</f>
         <v>0</v>
       </c>
-      <c r="AP11" s="528"/>
+      <c r="AP11" s="496"/>
     </row>
     <row r="12" spans="1:50" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A12" s="527">
+      <c r="A12" s="495">
         <v>2</v>
       </c>
-      <c r="B12" s="539" t="s">
+      <c r="B12" s="498" t="s">
         <v>273</v>
       </c>
-      <c r="C12" s="541" t="s">
+      <c r="C12" s="500" t="s">
         <v>275</v>
       </c>
       <c r="D12" s="421" t="s">
@@ -12358,12 +12358,12 @@
         <f>COUNTIF(D12:AH12,"X")+COUNTIF(D12:AH12,"1/2")/2+COUNTIF(D12:AH12,"1/p")/2+COUNTIF(D12:AH12,"ĐH")</f>
         <v>29</v>
       </c>
-      <c r="AP12" s="534"/>
+      <c r="AP12" s="510"/>
     </row>
     <row r="13" spans="1:50" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A13" s="528"/>
-      <c r="B13" s="540"/>
-      <c r="C13" s="542"/>
+      <c r="A13" s="496"/>
+      <c r="B13" s="499"/>
+      <c r="C13" s="501"/>
       <c r="D13" s="421">
         <v>12</v>
       </c>
@@ -12454,16 +12454,16 @@
         <f>COUNTIF(D13:AH13,"X")+COUNTIF(D13:AH13,"1/2")/2+COUNTIF(D13:AH13,"1/p")/2+COUNTIF(D13:AH13,"ĐH")</f>
         <v>0</v>
       </c>
-      <c r="AP13" s="535"/>
+      <c r="AP13" s="511"/>
     </row>
     <row r="14" spans="1:50" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A14" s="527">
+      <c r="A14" s="495">
         <v>3</v>
       </c>
-      <c r="B14" s="551" t="s">
+      <c r="B14" s="550" t="s">
         <v>307</v>
       </c>
-      <c r="C14" s="541" t="s">
+      <c r="C14" s="500" t="s">
         <v>275</v>
       </c>
       <c r="D14" s="421" t="s">
@@ -12582,12 +12582,12 @@
         <f>COUNTIF(D14:AH14,"X")+COUNTIF(D14:AH14,"1/2")/2+COUNTIF(D14:AH14,"1/p")/2+COUNTIF(D14:AH14,"ĐH")</f>
         <v>30</v>
       </c>
-      <c r="AP14" s="527"/>
+      <c r="AP14" s="495"/>
     </row>
     <row r="15" spans="1:50" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A15" s="528"/>
-      <c r="B15" s="551"/>
-      <c r="C15" s="542"/>
+      <c r="A15" s="496"/>
+      <c r="B15" s="550"/>
+      <c r="C15" s="501"/>
       <c r="D15" s="421"/>
       <c r="E15" s="421"/>
       <c r="F15" s="421"/>
@@ -12644,16 +12644,16 @@
         <f t="shared" ref="AO15:AO17" si="7">COUNTIF(D15:AH15,"X")+COUNTIF(D15:AH15,"1/2")/2+COUNTIF(D15:AH15,"1/p")/2+COUNTIF(D15:AH15,"ĐH")</f>
         <v>0</v>
       </c>
-      <c r="AP15" s="528"/>
+      <c r="AP15" s="496"/>
     </row>
     <row r="16" spans="1:50" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A16" s="552">
+      <c r="A16" s="563">
         <v>4</v>
       </c>
-      <c r="B16" s="551" t="s">
+      <c r="B16" s="550" t="s">
         <v>333</v>
       </c>
-      <c r="C16" s="550" t="s">
+      <c r="C16" s="562" t="s">
         <v>275</v>
       </c>
       <c r="D16" s="421" t="s">
@@ -12777,9 +12777,9 @@
       <c r="AP16" s="421"/>
     </row>
     <row r="17" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A17" s="552"/>
-      <c r="B17" s="551"/>
-      <c r="C17" s="550"/>
+      <c r="A17" s="563"/>
+      <c r="B17" s="550"/>
+      <c r="C17" s="562"/>
       <c r="D17" s="421"/>
       <c r="E17" s="421"/>
       <c r="F17" s="421"/>
@@ -12839,49 +12839,49 @@
       <c r="AP17" s="421"/>
     </row>
     <row r="18" spans="1:42" s="414" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A18" s="543" t="s">
+      <c r="A18" s="502" t="s">
         <v>202</v>
       </c>
-      <c r="B18" s="544"/>
-      <c r="C18" s="545"/>
-      <c r="D18" s="553"/>
-      <c r="E18" s="554"/>
-      <c r="F18" s="554"/>
-      <c r="G18" s="554"/>
-      <c r="H18" s="554"/>
-      <c r="I18" s="554"/>
-      <c r="J18" s="554"/>
-      <c r="K18" s="554"/>
-      <c r="L18" s="554"/>
-      <c r="M18" s="554"/>
-      <c r="N18" s="554"/>
-      <c r="O18" s="554"/>
-      <c r="P18" s="554"/>
-      <c r="Q18" s="554"/>
-      <c r="R18" s="554"/>
-      <c r="S18" s="554"/>
-      <c r="T18" s="554"/>
-      <c r="U18" s="554"/>
-      <c r="V18" s="554"/>
-      <c r="W18" s="554"/>
-      <c r="X18" s="554"/>
-      <c r="Y18" s="554"/>
-      <c r="Z18" s="554"/>
-      <c r="AA18" s="554"/>
-      <c r="AB18" s="554"/>
-      <c r="AC18" s="554"/>
-      <c r="AD18" s="554"/>
-      <c r="AE18" s="554"/>
-      <c r="AF18" s="554"/>
-      <c r="AG18" s="554"/>
-      <c r="AH18" s="554"/>
-      <c r="AI18" s="554"/>
-      <c r="AJ18" s="554"/>
-      <c r="AK18" s="554"/>
-      <c r="AL18" s="554"/>
-      <c r="AM18" s="554"/>
-      <c r="AN18" s="554"/>
-      <c r="AO18" s="555"/>
+      <c r="B18" s="503"/>
+      <c r="C18" s="504"/>
+      <c r="D18" s="551"/>
+      <c r="E18" s="552"/>
+      <c r="F18" s="552"/>
+      <c r="G18" s="552"/>
+      <c r="H18" s="552"/>
+      <c r="I18" s="552"/>
+      <c r="J18" s="552"/>
+      <c r="K18" s="552"/>
+      <c r="L18" s="552"/>
+      <c r="M18" s="552"/>
+      <c r="N18" s="552"/>
+      <c r="O18" s="552"/>
+      <c r="P18" s="552"/>
+      <c r="Q18" s="552"/>
+      <c r="R18" s="552"/>
+      <c r="S18" s="552"/>
+      <c r="T18" s="552"/>
+      <c r="U18" s="552"/>
+      <c r="V18" s="552"/>
+      <c r="W18" s="552"/>
+      <c r="X18" s="552"/>
+      <c r="Y18" s="552"/>
+      <c r="Z18" s="552"/>
+      <c r="AA18" s="552"/>
+      <c r="AB18" s="552"/>
+      <c r="AC18" s="552"/>
+      <c r="AD18" s="552"/>
+      <c r="AE18" s="552"/>
+      <c r="AF18" s="552"/>
+      <c r="AG18" s="552"/>
+      <c r="AH18" s="552"/>
+      <c r="AI18" s="552"/>
+      <c r="AJ18" s="552"/>
+      <c r="AK18" s="552"/>
+      <c r="AL18" s="552"/>
+      <c r="AM18" s="552"/>
+      <c r="AN18" s="552"/>
+      <c r="AO18" s="553"/>
       <c r="AP18" s="421"/>
     </row>
     <row r="19" spans="1:42" s="414" customFormat="1" ht="20.25" customHeight="1">
@@ -12941,14 +12941,14 @@
       <c r="L20" s="419"/>
       <c r="M20" s="419"/>
       <c r="N20" s="419"/>
-      <c r="S20" s="549" t="s">
+      <c r="S20" s="497" t="s">
         <v>262</v>
       </c>
-      <c r="T20" s="549"/>
-      <c r="U20" s="549"/>
-      <c r="V20" s="549"/>
-      <c r="W20" s="549"/>
-      <c r="X20" s="549"/>
+      <c r="T20" s="497"/>
+      <c r="U20" s="497"/>
+      <c r="V20" s="497"/>
+      <c r="W20" s="497"/>
+      <c r="X20" s="497"/>
       <c r="Y20" s="419"/>
       <c r="Z20" s="419"/>
       <c r="AA20" s="419"/>
@@ -12965,10 +12965,10 @@
       <c r="AL20" s="381"/>
       <c r="AM20" s="381"/>
       <c r="AN20" s="381"/>
-      <c r="AO20" s="549" t="s">
+      <c r="AO20" s="497" t="s">
         <v>317</v>
       </c>
-      <c r="AP20" s="549"/>
+      <c r="AP20" s="497"/>
     </row>
     <row r="21" spans="1:42" s="380" customFormat="1" ht="20.25" customHeight="1">
       <c r="A21" s="83"/>
@@ -13104,14 +13104,14 @@
       <c r="L24" s="391"/>
       <c r="M24" s="391"/>
       <c r="N24" s="391"/>
-      <c r="S24" s="465" t="s">
+      <c r="S24" s="459" t="s">
         <v>319</v>
       </c>
-      <c r="T24" s="465"/>
-      <c r="U24" s="465"/>
-      <c r="V24" s="465"/>
-      <c r="W24" s="465"/>
-      <c r="X24" s="465"/>
+      <c r="T24" s="459"/>
+      <c r="U24" s="459"/>
+      <c r="V24" s="459"/>
+      <c r="W24" s="459"/>
+      <c r="X24" s="459"/>
       <c r="Y24" s="391"/>
       <c r="Z24" s="391"/>
       <c r="AA24" s="391"/>
@@ -13128,10 +13128,10 @@
       <c r="AL24" s="399"/>
       <c r="AM24" s="395"/>
       <c r="AN24" s="395"/>
-      <c r="AO24" s="465" t="s">
+      <c r="AO24" s="459" t="s">
         <v>320</v>
       </c>
-      <c r="AP24" s="465"/>
+      <c r="AP24" s="459"/>
     </row>
     <row r="25" spans="1:42" s="380" customFormat="1" ht="20.25" customHeight="1">
       <c r="A25" s="382"/>
@@ -13872,24 +13872,10 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="AK6:AK8"/>
-    <mergeCell ref="AL6:AL8"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="AI6:AI8"/>
-    <mergeCell ref="AJ6:AJ8"/>
-    <mergeCell ref="AM6:AM8"/>
-    <mergeCell ref="AN6:AN8"/>
-    <mergeCell ref="AP14:AP15"/>
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="AP10:AP11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="S20:X20"/>
+    <mergeCell ref="AO20:AP20"/>
     <mergeCell ref="S24:X24"/>
     <mergeCell ref="AO24:AP24"/>
     <mergeCell ref="A18:C18"/>
@@ -13906,10 +13892,24 @@
     <mergeCell ref="AO5:AO8"/>
     <mergeCell ref="AP5:AP8"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="S20:X20"/>
-    <mergeCell ref="AO20:AP20"/>
+    <mergeCell ref="AM6:AM8"/>
+    <mergeCell ref="AN6:AN8"/>
+    <mergeCell ref="AP14:AP15"/>
+    <mergeCell ref="AP12:AP13"/>
+    <mergeCell ref="AP10:AP11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="AK6:AK8"/>
+    <mergeCell ref="AL6:AL8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="AI6:AI8"/>
+    <mergeCell ref="AJ6:AJ8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0.17" top="0.39" bottom="0.14000000000000001" header="0.17" footer="0.11"/>
@@ -13947,20 +13947,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="495" t="s">
+      <c r="A1" s="524" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="495"/>
-      <c r="C1" s="495"/>
-      <c r="D1" s="495"/>
-      <c r="E1" s="495"/>
-      <c r="F1" s="495"/>
-      <c r="G1" s="495"/>
-      <c r="H1" s="495"/>
-      <c r="I1" s="495"/>
-      <c r="J1" s="495"/>
-      <c r="K1" s="495"/>
-      <c r="L1" s="495"/>
+      <c r="B1" s="524"/>
+      <c r="C1" s="524"/>
+      <c r="D1" s="524"/>
+      <c r="E1" s="524"/>
+      <c r="F1" s="524"/>
+      <c r="G1" s="524"/>
+      <c r="H1" s="524"/>
+      <c r="I1" s="524"/>
+      <c r="J1" s="524"/>
+      <c r="K1" s="524"/>
+      <c r="L1" s="524"/>
       <c r="M1" s="402"/>
       <c r="N1" s="403"/>
       <c r="O1" s="403"/>
@@ -14001,19 +14001,19 @@
       <c r="AX1" s="103"/>
     </row>
     <row r="2" spans="1:50" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="496" t="s">
+      <c r="A2" s="525" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="496"/>
-      <c r="C2" s="496"/>
-      <c r="D2" s="496"/>
-      <c r="E2" s="496"/>
-      <c r="F2" s="496"/>
-      <c r="G2" s="496"/>
-      <c r="H2" s="496"/>
-      <c r="I2" s="496"/>
-      <c r="J2" s="496"/>
-      <c r="K2" s="496"/>
+      <c r="B2" s="525"/>
+      <c r="C2" s="525"/>
+      <c r="D2" s="525"/>
+      <c r="E2" s="525"/>
+      <c r="F2" s="525"/>
+      <c r="G2" s="525"/>
+      <c r="H2" s="525"/>
+      <c r="I2" s="525"/>
+      <c r="J2" s="525"/>
+      <c r="K2" s="525"/>
       <c r="L2" s="404"/>
       <c r="M2" s="404"/>
       <c r="N2" s="405"/>
@@ -14047,17 +14047,17 @@
       <c r="AP2" s="402"/>
     </row>
     <row r="3" spans="1:50" s="28" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A3" s="497"/>
-      <c r="B3" s="497"/>
-      <c r="C3" s="497"/>
-      <c r="D3" s="497"/>
-      <c r="E3" s="497"/>
-      <c r="F3" s="497"/>
-      <c r="G3" s="497"/>
-      <c r="H3" s="497"/>
-      <c r="I3" s="497"/>
-      <c r="J3" s="497"/>
-      <c r="K3" s="497"/>
+      <c r="A3" s="526"/>
+      <c r="B3" s="526"/>
+      <c r="C3" s="526"/>
+      <c r="D3" s="526"/>
+      <c r="E3" s="526"/>
+      <c r="F3" s="526"/>
+      <c r="G3" s="526"/>
+      <c r="H3" s="526"/>
+      <c r="I3" s="526"/>
+      <c r="J3" s="526"/>
+      <c r="K3" s="526"/>
       <c r="L3" s="404"/>
       <c r="M3" s="404"/>
       <c r="N3" s="405"/>
@@ -14091,148 +14091,148 @@
       <c r="AP3" s="420"/>
     </row>
     <row r="4" spans="1:50" s="328" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A4" s="498" t="str">
+      <c r="A4" s="527" t="str">
         <f>"BẢNG CHẤM CÔNG BỘ PHẬN BẢO VỆ THÁNG "&amp;TEXT(MONTH($D$7),"00")&amp;" NĂM 2025"</f>
         <v>BẢNG CHẤM CÔNG BỘ PHẬN BẢO VỆ THÁNG 12 NĂM 2025</v>
       </c>
-      <c r="B4" s="498"/>
-      <c r="C4" s="498"/>
-      <c r="D4" s="498"/>
-      <c r="E4" s="498"/>
-      <c r="F4" s="498"/>
-      <c r="G4" s="498"/>
-      <c r="H4" s="498"/>
-      <c r="I4" s="498"/>
-      <c r="J4" s="498"/>
-      <c r="K4" s="498"/>
-      <c r="L4" s="498"/>
-      <c r="M4" s="498"/>
-      <c r="N4" s="498"/>
-      <c r="O4" s="498"/>
-      <c r="P4" s="498"/>
-      <c r="Q4" s="498"/>
-      <c r="R4" s="498"/>
-      <c r="S4" s="498"/>
-      <c r="T4" s="498"/>
-      <c r="U4" s="498"/>
-      <c r="V4" s="498"/>
-      <c r="W4" s="498"/>
-      <c r="X4" s="498"/>
-      <c r="Y4" s="498"/>
-      <c r="Z4" s="498"/>
-      <c r="AA4" s="498"/>
-      <c r="AB4" s="498"/>
-      <c r="AC4" s="498"/>
-      <c r="AD4" s="498"/>
-      <c r="AE4" s="498"/>
-      <c r="AF4" s="498"/>
-      <c r="AG4" s="498"/>
-      <c r="AH4" s="498"/>
-      <c r="AI4" s="498"/>
-      <c r="AJ4" s="498"/>
-      <c r="AK4" s="498"/>
-      <c r="AL4" s="498"/>
-      <c r="AM4" s="498"/>
-      <c r="AN4" s="498"/>
-      <c r="AO4" s="498"/>
-      <c r="AP4" s="498"/>
+      <c r="B4" s="527"/>
+      <c r="C4" s="527"/>
+      <c r="D4" s="527"/>
+      <c r="E4" s="527"/>
+      <c r="F4" s="527"/>
+      <c r="G4" s="527"/>
+      <c r="H4" s="527"/>
+      <c r="I4" s="527"/>
+      <c r="J4" s="527"/>
+      <c r="K4" s="527"/>
+      <c r="L4" s="527"/>
+      <c r="M4" s="527"/>
+      <c r="N4" s="527"/>
+      <c r="O4" s="527"/>
+      <c r="P4" s="527"/>
+      <c r="Q4" s="527"/>
+      <c r="R4" s="527"/>
+      <c r="S4" s="527"/>
+      <c r="T4" s="527"/>
+      <c r="U4" s="527"/>
+      <c r="V4" s="527"/>
+      <c r="W4" s="527"/>
+      <c r="X4" s="527"/>
+      <c r="Y4" s="527"/>
+      <c r="Z4" s="527"/>
+      <c r="AA4" s="527"/>
+      <c r="AB4" s="527"/>
+      <c r="AC4" s="527"/>
+      <c r="AD4" s="527"/>
+      <c r="AE4" s="527"/>
+      <c r="AF4" s="527"/>
+      <c r="AG4" s="527"/>
+      <c r="AH4" s="527"/>
+      <c r="AI4" s="527"/>
+      <c r="AJ4" s="527"/>
+      <c r="AK4" s="527"/>
+      <c r="AL4" s="527"/>
+      <c r="AM4" s="527"/>
+      <c r="AN4" s="527"/>
+      <c r="AO4" s="527"/>
+      <c r="AP4" s="527"/>
     </row>
     <row r="5" spans="1:50" ht="20.25" customHeight="1">
-      <c r="A5" s="556" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="557" t="s">
+      <c r="A5" s="554" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="555" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="556" t="s">
+      <c r="C5" s="554" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="558" t="s">
+      <c r="D5" s="556" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="559"/>
-      <c r="F5" s="559"/>
-      <c r="G5" s="559"/>
-      <c r="H5" s="559"/>
-      <c r="I5" s="559"/>
-      <c r="J5" s="559"/>
-      <c r="K5" s="559"/>
-      <c r="L5" s="559"/>
-      <c r="M5" s="559"/>
-      <c r="N5" s="559"/>
-      <c r="O5" s="559"/>
-      <c r="P5" s="559"/>
-      <c r="Q5" s="559"/>
-      <c r="R5" s="559"/>
-      <c r="S5" s="559"/>
-      <c r="T5" s="559"/>
-      <c r="U5" s="559"/>
-      <c r="V5" s="559"/>
-      <c r="W5" s="559"/>
-      <c r="X5" s="559"/>
-      <c r="Y5" s="559"/>
-      <c r="Z5" s="559"/>
-      <c r="AA5" s="559"/>
-      <c r="AB5" s="559"/>
-      <c r="AC5" s="559"/>
-      <c r="AD5" s="559"/>
-      <c r="AE5" s="559"/>
-      <c r="AF5" s="559"/>
-      <c r="AG5" s="559"/>
-      <c r="AH5" s="559"/>
-      <c r="AI5" s="510" t="s">
+      <c r="E5" s="557"/>
+      <c r="F5" s="557"/>
+      <c r="G5" s="557"/>
+      <c r="H5" s="557"/>
+      <c r="I5" s="557"/>
+      <c r="J5" s="557"/>
+      <c r="K5" s="557"/>
+      <c r="L5" s="557"/>
+      <c r="M5" s="557"/>
+      <c r="N5" s="557"/>
+      <c r="O5" s="557"/>
+      <c r="P5" s="557"/>
+      <c r="Q5" s="557"/>
+      <c r="R5" s="557"/>
+      <c r="S5" s="557"/>
+      <c r="T5" s="557"/>
+      <c r="U5" s="557"/>
+      <c r="V5" s="557"/>
+      <c r="W5" s="557"/>
+      <c r="X5" s="557"/>
+      <c r="Y5" s="557"/>
+      <c r="Z5" s="557"/>
+      <c r="AA5" s="557"/>
+      <c r="AB5" s="557"/>
+      <c r="AC5" s="557"/>
+      <c r="AD5" s="557"/>
+      <c r="AE5" s="557"/>
+      <c r="AF5" s="557"/>
+      <c r="AG5" s="557"/>
+      <c r="AH5" s="557"/>
+      <c r="AI5" s="536" t="s">
         <v>210</v>
       </c>
-      <c r="AJ5" s="511"/>
-      <c r="AK5" s="512"/>
-      <c r="AL5" s="513" t="s">
+      <c r="AJ5" s="537"/>
+      <c r="AK5" s="538"/>
+      <c r="AL5" s="539" t="s">
         <v>211</v>
       </c>
-      <c r="AM5" s="514"/>
-      <c r="AN5" s="514"/>
-      <c r="AO5" s="501" t="s">
+      <c r="AM5" s="540"/>
+      <c r="AN5" s="540"/>
+      <c r="AO5" s="541" t="s">
         <v>212</v>
       </c>
-      <c r="AP5" s="515" t="s">
+      <c r="AP5" s="544" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="406" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A6" s="556"/>
-      <c r="B6" s="557"/>
-      <c r="C6" s="556"/>
-      <c r="D6" s="561"/>
-      <c r="E6" s="562"/>
-      <c r="F6" s="562"/>
-      <c r="G6" s="562"/>
-      <c r="H6" s="562"/>
-      <c r="I6" s="562"/>
-      <c r="J6" s="562"/>
-      <c r="K6" s="562"/>
-      <c r="L6" s="562"/>
-      <c r="M6" s="562"/>
-      <c r="N6" s="562"/>
-      <c r="O6" s="562"/>
-      <c r="P6" s="562"/>
-      <c r="Q6" s="562"/>
-      <c r="R6" s="562"/>
-      <c r="S6" s="562"/>
-      <c r="T6" s="562"/>
-      <c r="U6" s="562"/>
-      <c r="V6" s="562"/>
-      <c r="W6" s="562"/>
-      <c r="X6" s="562"/>
-      <c r="Y6" s="562"/>
-      <c r="Z6" s="562"/>
-      <c r="AA6" s="562"/>
-      <c r="AB6" s="562"/>
-      <c r="AC6" s="562"/>
-      <c r="AD6" s="562"/>
-      <c r="AE6" s="562"/>
-      <c r="AF6" s="562"/>
-      <c r="AG6" s="562"/>
-      <c r="AH6" s="562"/>
-      <c r="AI6" s="518" t="s">
+      <c r="A6" s="554"/>
+      <c r="B6" s="555"/>
+      <c r="C6" s="554"/>
+      <c r="D6" s="559"/>
+      <c r="E6" s="560"/>
+      <c r="F6" s="560"/>
+      <c r="G6" s="560"/>
+      <c r="H6" s="560"/>
+      <c r="I6" s="560"/>
+      <c r="J6" s="560"/>
+      <c r="K6" s="560"/>
+      <c r="L6" s="560"/>
+      <c r="M6" s="560"/>
+      <c r="N6" s="560"/>
+      <c r="O6" s="560"/>
+      <c r="P6" s="560"/>
+      <c r="Q6" s="560"/>
+      <c r="R6" s="560"/>
+      <c r="S6" s="560"/>
+      <c r="T6" s="560"/>
+      <c r="U6" s="560"/>
+      <c r="V6" s="560"/>
+      <c r="W6" s="560"/>
+      <c r="X6" s="560"/>
+      <c r="Y6" s="560"/>
+      <c r="Z6" s="560"/>
+      <c r="AA6" s="560"/>
+      <c r="AB6" s="560"/>
+      <c r="AC6" s="560"/>
+      <c r="AD6" s="560"/>
+      <c r="AE6" s="560"/>
+      <c r="AF6" s="560"/>
+      <c r="AG6" s="560"/>
+      <c r="AH6" s="560"/>
+      <c r="AI6" s="547" t="s">
         <v>253</v>
       </c>
       <c r="AJ6" s="521" t="s">
@@ -14241,7 +14241,7 @@
       <c r="AK6" s="521" t="s">
         <v>214</v>
       </c>
-      <c r="AL6" s="524" t="s">
+      <c r="AL6" s="518" t="s">
         <v>243</v>
       </c>
       <c r="AM6" s="521" t="s">
@@ -14250,13 +14250,13 @@
       <c r="AN6" s="521" t="s">
         <v>215</v>
       </c>
-      <c r="AO6" s="502"/>
-      <c r="AP6" s="516"/>
+      <c r="AO6" s="542"/>
+      <c r="AP6" s="545"/>
     </row>
     <row r="7" spans="1:50" s="406" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A7" s="556"/>
-      <c r="B7" s="557"/>
-      <c r="C7" s="556"/>
+      <c r="A7" s="554"/>
+      <c r="B7" s="555"/>
+      <c r="C7" s="554"/>
       <c r="D7" s="445">
         <v>45992</v>
       </c>
@@ -14380,19 +14380,19 @@
         <f t="shared" si="0"/>
         <v>46022</v>
       </c>
-      <c r="AI7" s="519"/>
+      <c r="AI7" s="548"/>
       <c r="AJ7" s="522"/>
       <c r="AK7" s="522"/>
-      <c r="AL7" s="525"/>
+      <c r="AL7" s="519"/>
       <c r="AM7" s="522"/>
       <c r="AN7" s="522"/>
-      <c r="AO7" s="502"/>
-      <c r="AP7" s="516"/>
+      <c r="AO7" s="542"/>
+      <c r="AP7" s="545"/>
     </row>
     <row r="8" spans="1:50" s="406" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A8" s="556"/>
-      <c r="B8" s="557"/>
-      <c r="C8" s="556"/>
+      <c r="A8" s="554"/>
+      <c r="B8" s="555"/>
+      <c r="C8" s="554"/>
       <c r="D8" s="408" t="str">
         <f>IF("T"&amp;(WEEKDAY(D7))="T1","CN","T"&amp;(WEEKDAY(D7)))</f>
         <v>T2</v>
@@ -14517,14 +14517,14 @@
         <f t="shared" si="1"/>
         <v>T4</v>
       </c>
-      <c r="AI8" s="520"/>
+      <c r="AI8" s="549"/>
       <c r="AJ8" s="523"/>
       <c r="AK8" s="523"/>
-      <c r="AL8" s="526"/>
+      <c r="AL8" s="520"/>
       <c r="AM8" s="523"/>
       <c r="AN8" s="523"/>
-      <c r="AO8" s="503"/>
-      <c r="AP8" s="517"/>
+      <c r="AO8" s="543"/>
+      <c r="AP8" s="546"/>
     </row>
     <row r="9" spans="1:50" s="406" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="410">
@@ -14655,13 +14655,13 @@
       </c>
     </row>
     <row r="10" spans="1:50" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A10" s="527">
+      <c r="A10" s="495">
         <v>1</v>
       </c>
-      <c r="B10" s="564" t="s">
+      <c r="B10" s="565" t="s">
         <v>284</v>
       </c>
-      <c r="C10" s="501" t="s">
+      <c r="C10" s="541" t="s">
         <v>290</v>
       </c>
       <c r="D10" s="421" t="s">
@@ -14785,12 +14785,12 @@
         <f>COUNTIF(D10:AH10,"X")+COUNTIF(D10:AH10,"1/2")/2+COUNTIF(D10:AH10,"1/p")/2+COUNTIF(D10:AH10,"ĐH")</f>
         <v>31</v>
       </c>
-      <c r="AP10" s="534"/>
+      <c r="AP10" s="510"/>
     </row>
     <row r="11" spans="1:50" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A11" s="528"/>
-      <c r="B11" s="564"/>
-      <c r="C11" s="503"/>
+      <c r="A11" s="496"/>
+      <c r="B11" s="565"/>
+      <c r="C11" s="543"/>
       <c r="D11" s="442"/>
       <c r="E11" s="442"/>
       <c r="F11" s="427"/>
@@ -14835,16 +14835,16 @@
       <c r="AM11" s="411"/>
       <c r="AN11" s="411"/>
       <c r="AO11" s="413"/>
-      <c r="AP11" s="535"/>
+      <c r="AP11" s="511"/>
     </row>
     <row r="12" spans="1:50" s="414" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A12" s="527">
+      <c r="A12" s="495">
         <v>2</v>
       </c>
-      <c r="B12" s="564" t="s">
+      <c r="B12" s="565" t="s">
         <v>324</v>
       </c>
-      <c r="C12" s="501" t="s">
+      <c r="C12" s="541" t="s">
         <v>312</v>
       </c>
       <c r="D12" s="421" t="s">
@@ -14968,12 +14968,12 @@
         <f>COUNTIF(D12:AH12,"X")+COUNTIF(D12:AH12,"1/2")/2+COUNTIF(D12:AH12,"1/p")/2+COUNTIF(D12:AH12,"ĐH")</f>
         <v>31</v>
       </c>
-      <c r="AP12" s="527"/>
+      <c r="AP12" s="495"/>
     </row>
     <row r="13" spans="1:50" s="414" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A13" s="528"/>
-      <c r="B13" s="564"/>
-      <c r="C13" s="517"/>
+      <c r="A13" s="496"/>
+      <c r="B13" s="565"/>
+      <c r="C13" s="546"/>
       <c r="D13" s="442"/>
       <c r="E13" s="442"/>
       <c r="F13" s="427"/>
@@ -15016,16 +15016,16 @@
       <c r="AM13" s="411"/>
       <c r="AN13" s="411"/>
       <c r="AO13" s="413"/>
-      <c r="AP13" s="528"/>
+      <c r="AP13" s="496"/>
     </row>
     <row r="14" spans="1:50" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A14" s="527">
+      <c r="A14" s="495">
         <v>3</v>
       </c>
-      <c r="B14" s="532" t="s">
+      <c r="B14" s="508" t="s">
         <v>265</v>
       </c>
-      <c r="C14" s="527" t="s">
+      <c r="C14" s="495" t="s">
         <v>280</v>
       </c>
       <c r="D14" s="421" t="s">
@@ -15149,12 +15149,12 @@
         <f t="shared" ref="AO14:AO21" si="5">COUNTIF(D14:AH14,"X")+COUNTIF(D14:AH14,"1/2")/2+COUNTIF(D14:AH14,"1/p")/2+COUNTIF(D14:AH14,"ĐH")</f>
         <v>31</v>
       </c>
-      <c r="AP14" s="534"/>
+      <c r="AP14" s="510"/>
     </row>
     <row r="15" spans="1:50" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A15" s="528"/>
-      <c r="B15" s="533"/>
-      <c r="C15" s="528"/>
+      <c r="A15" s="496"/>
+      <c r="B15" s="509"/>
+      <c r="C15" s="496"/>
       <c r="D15" s="442"/>
       <c r="E15" s="442"/>
       <c r="F15" s="427"/>
@@ -15196,16 +15196,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AP15" s="535"/>
+      <c r="AP15" s="511"/>
     </row>
     <row r="16" spans="1:50" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A16" s="527">
+      <c r="A16" s="495">
         <v>4</v>
       </c>
-      <c r="B16" s="532" t="s">
+      <c r="B16" s="508" t="s">
         <v>283</v>
       </c>
-      <c r="C16" s="527" t="s">
+      <c r="C16" s="495" t="s">
         <v>280</v>
       </c>
       <c r="D16" s="421" t="s">
@@ -15329,12 +15329,12 @@
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="AP16" s="534"/>
+      <c r="AP16" s="510"/>
     </row>
     <row r="17" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A17" s="528"/>
-      <c r="B17" s="533"/>
-      <c r="C17" s="528"/>
+      <c r="A17" s="496"/>
+      <c r="B17" s="509"/>
+      <c r="C17" s="496"/>
       <c r="D17" s="442"/>
       <c r="E17" s="442"/>
       <c r="F17" s="427"/>
@@ -15376,16 +15376,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AP17" s="535"/>
+      <c r="AP17" s="511"/>
     </row>
     <row r="18" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A18" s="527">
+      <c r="A18" s="495">
         <v>5</v>
       </c>
-      <c r="B18" s="532" t="s">
+      <c r="B18" s="508" t="s">
         <v>313</v>
       </c>
-      <c r="C18" s="527" t="s">
+      <c r="C18" s="495" t="s">
         <v>280</v>
       </c>
       <c r="D18" s="421"/>
@@ -15461,12 +15461,12 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="AP18" s="534"/>
+      <c r="AP18" s="510"/>
     </row>
     <row r="19" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A19" s="528"/>
-      <c r="B19" s="533"/>
-      <c r="C19" s="528"/>
+      <c r="A19" s="496"/>
+      <c r="B19" s="509"/>
+      <c r="C19" s="496"/>
       <c r="D19" s="442">
         <v>8</v>
       </c>
@@ -15553,16 +15553,16 @@
       <c r="AM19" s="411"/>
       <c r="AN19" s="411"/>
       <c r="AO19" s="413"/>
-      <c r="AP19" s="535"/>
+      <c r="AP19" s="511"/>
     </row>
     <row r="20" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A20" s="527">
+      <c r="A20" s="495">
         <v>6</v>
       </c>
-      <c r="B20" s="532" t="s">
+      <c r="B20" s="508" t="s">
         <v>281</v>
       </c>
-      <c r="C20" s="527" t="s">
+      <c r="C20" s="495" t="s">
         <v>280</v>
       </c>
       <c r="D20" s="421" t="s">
@@ -15684,12 +15684,12 @@
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="AP20" s="534"/>
+      <c r="AP20" s="510"/>
     </row>
     <row r="21" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A21" s="528"/>
-      <c r="B21" s="533"/>
-      <c r="C21" s="528"/>
+      <c r="A21" s="496"/>
+      <c r="B21" s="509"/>
+      <c r="C21" s="496"/>
       <c r="D21" s="442"/>
       <c r="E21" s="442"/>
       <c r="F21" s="427"/>
@@ -15733,16 +15733,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AP21" s="535"/>
+      <c r="AP21" s="511"/>
     </row>
     <row r="22" spans="1:42" s="414" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A22" s="527">
+      <c r="A22" s="495">
         <v>8</v>
       </c>
-      <c r="B22" s="532" t="s">
+      <c r="B22" s="508" t="s">
         <v>302</v>
       </c>
-      <c r="C22" s="527" t="s">
+      <c r="C22" s="495" t="s">
         <v>280</v>
       </c>
       <c r="D22" s="421" t="s">
@@ -15866,12 +15866,12 @@
         <f>COUNTIF(D22:AH22,"X")+COUNTIF(D22:AH22,"1/2")/2+COUNTIF(D22:AH22,"1/p")/2+COUNTIF(D22:AH22,"ĐH")</f>
         <v>31</v>
       </c>
-      <c r="AP22" s="527"/>
+      <c r="AP22" s="495"/>
     </row>
     <row r="23" spans="1:42" s="414" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A23" s="528"/>
-      <c r="B23" s="533"/>
-      <c r="C23" s="528"/>
+      <c r="A23" s="496"/>
+      <c r="B23" s="509"/>
+      <c r="C23" s="496"/>
       <c r="D23" s="442"/>
       <c r="E23" s="442"/>
       <c r="F23" s="427"/>
@@ -15910,16 +15910,16 @@
       <c r="AM23" s="411"/>
       <c r="AN23" s="411"/>
       <c r="AO23" s="413"/>
-      <c r="AP23" s="528"/>
+      <c r="AP23" s="496"/>
     </row>
     <row r="24" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A24" s="527">
+      <c r="A24" s="495">
         <v>9</v>
       </c>
-      <c r="B24" s="532" t="s">
+      <c r="B24" s="508" t="s">
         <v>329</v>
       </c>
-      <c r="C24" s="527" t="s">
+      <c r="C24" s="495" t="s">
         <v>280</v>
       </c>
       <c r="D24" s="421" t="s">
@@ -16043,12 +16043,12 @@
         <f>COUNTIF(D24:AH24,"X")+COUNTIF(D24:AH24,"1/2")/2+COUNTIF(D24:AH24,"1/p")/2+COUNTIF(D24:AH24,"ĐH")</f>
         <v>31</v>
       </c>
-      <c r="AP24" s="552"/>
+      <c r="AP24" s="563"/>
     </row>
     <row r="25" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A25" s="528"/>
-      <c r="B25" s="533"/>
-      <c r="C25" s="528"/>
+      <c r="A25" s="496"/>
+      <c r="B25" s="509"/>
+      <c r="C25" s="496"/>
       <c r="D25" s="442"/>
       <c r="E25" s="442"/>
       <c r="F25" s="427"/>
@@ -16090,16 +16090,16 @@
         <f>COUNTIF(D25:AH25,"X")+COUNTIF(D25:AH25,"1/2")/2+COUNTIF(D25:AH25,"1/p")/2+COUNTIF(D25:AH25,"ĐH")</f>
         <v>0</v>
       </c>
-      <c r="AP25" s="552"/>
+      <c r="AP25" s="563"/>
     </row>
     <row r="26" spans="1:42" s="414" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A26" s="527">
+      <c r="A26" s="495">
         <v>10</v>
       </c>
-      <c r="B26" s="564" t="s">
+      <c r="B26" s="565" t="s">
         <v>308</v>
       </c>
-      <c r="C26" s="527" t="s">
+      <c r="C26" s="495" t="s">
         <v>280</v>
       </c>
       <c r="D26" s="421" t="s">
@@ -16223,12 +16223,12 @@
         <f t="shared" ref="AO26" si="27">COUNTIF(D26:AH26,"X")+COUNTIF(D26:AH26,"1/2")/2+COUNTIF(D26:AH26,"1/p")/2+COUNTIF(D26:AH26,"ĐH")</f>
         <v>30</v>
       </c>
-      <c r="AP26" s="527"/>
+      <c r="AP26" s="495"/>
     </row>
     <row r="27" spans="1:42" s="414" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A27" s="528"/>
-      <c r="B27" s="564"/>
-      <c r="C27" s="528"/>
+      <c r="A27" s="496"/>
+      <c r="B27" s="565"/>
+      <c r="C27" s="496"/>
       <c r="D27" s="442"/>
       <c r="E27" s="442"/>
       <c r="F27" s="427"/>
@@ -16267,16 +16267,16 @@
       <c r="AM27" s="411"/>
       <c r="AN27" s="411"/>
       <c r="AO27" s="413"/>
-      <c r="AP27" s="528"/>
+      <c r="AP27" s="496"/>
     </row>
     <row r="28" spans="1:42" s="414" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A28" s="527">
+      <c r="A28" s="495">
         <v>11</v>
       </c>
-      <c r="B28" s="532" t="s">
+      <c r="B28" s="508" t="s">
         <v>282</v>
       </c>
-      <c r="C28" s="527" t="s">
+      <c r="C28" s="495" t="s">
         <v>280</v>
       </c>
       <c r="D28" s="421" t="s">
@@ -16400,12 +16400,12 @@
         <f>COUNTIF(D28:AH28,"X")+COUNTIF(D28:AH28,"1/2")/2+COUNTIF(D28:AH28,"1/p")/2+COUNTIF(D28:AH28,"ĐH")</f>
         <v>31</v>
       </c>
-      <c r="AP28" s="527"/>
+      <c r="AP28" s="495"/>
     </row>
     <row r="29" spans="1:42" s="414" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A29" s="528"/>
-      <c r="B29" s="533"/>
-      <c r="C29" s="528"/>
+      <c r="A29" s="496"/>
+      <c r="B29" s="509"/>
+      <c r="C29" s="496"/>
       <c r="D29" s="442"/>
       <c r="E29" s="442"/>
       <c r="F29" s="427"/>
@@ -16444,16 +16444,16 @@
       <c r="AM29" s="411"/>
       <c r="AN29" s="411"/>
       <c r="AO29" s="413"/>
-      <c r="AP29" s="528"/>
+      <c r="AP29" s="496"/>
     </row>
     <row r="30" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A30" s="527">
+      <c r="A30" s="495">
         <v>12</v>
       </c>
-      <c r="B30" s="565" t="s">
+      <c r="B30" s="566" t="s">
         <v>289</v>
       </c>
-      <c r="C30" s="527" t="s">
+      <c r="C30" s="495" t="s">
         <v>280</v>
       </c>
       <c r="D30" s="421" t="s">
@@ -16577,12 +16577,12 @@
         <f>COUNTIF(D30:AH30,"X")+COUNTIF(D30:AH30,"1/2")/2+COUNTIF(D30:AH30,"1/p")/2+COUNTIF(D30:AH30,"ĐH")</f>
         <v>31</v>
       </c>
-      <c r="AP30" s="527"/>
+      <c r="AP30" s="495"/>
     </row>
     <row r="31" spans="1:42" s="414" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A31" s="528"/>
-      <c r="B31" s="566"/>
-      <c r="C31" s="528"/>
+      <c r="A31" s="496"/>
+      <c r="B31" s="567"/>
+      <c r="C31" s="496"/>
       <c r="D31" s="442"/>
       <c r="E31" s="442"/>
       <c r="F31" s="427"/>
@@ -16621,16 +16621,16 @@
       <c r="AM31" s="411"/>
       <c r="AN31" s="411"/>
       <c r="AO31" s="413"/>
-      <c r="AP31" s="528"/>
+      <c r="AP31" s="496"/>
     </row>
     <row r="32" spans="1:42" s="414" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A32" s="527">
+      <c r="A32" s="495">
         <v>13</v>
       </c>
-      <c r="B32" s="532" t="s">
+      <c r="B32" s="508" t="s">
         <v>291</v>
       </c>
-      <c r="C32" s="527" t="s">
+      <c r="C32" s="495" t="s">
         <v>280</v>
       </c>
       <c r="D32" s="421" t="s">
@@ -16754,12 +16754,12 @@
         <f>COUNTIF(D32:AH32,"X")+COUNTIF(D32:AH32,"1/2")/2+COUNTIF(D32:AH32,"1/p")/2+COUNTIF(D32:AH32,"ĐH")</f>
         <v>31</v>
       </c>
-      <c r="AP32" s="527"/>
+      <c r="AP32" s="495"/>
     </row>
     <row r="33" spans="1:42" s="414" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A33" s="528"/>
-      <c r="B33" s="533"/>
-      <c r="C33" s="528"/>
+      <c r="A33" s="496"/>
+      <c r="B33" s="509"/>
+      <c r="C33" s="496"/>
       <c r="D33" s="442"/>
       <c r="E33" s="442"/>
       <c r="F33" s="427"/>
@@ -16798,16 +16798,16 @@
       <c r="AM33" s="411"/>
       <c r="AN33" s="411"/>
       <c r="AO33" s="413"/>
-      <c r="AP33" s="528"/>
+      <c r="AP33" s="496"/>
     </row>
     <row r="34" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A34" s="527">
+      <c r="A34" s="495">
         <v>14</v>
       </c>
-      <c r="B34" s="532" t="s">
+      <c r="B34" s="508" t="s">
         <v>305</v>
       </c>
-      <c r="C34" s="527" t="s">
+      <c r="C34" s="495" t="s">
         <v>280</v>
       </c>
       <c r="D34" s="421" t="s">
@@ -16931,12 +16931,12 @@
         <f>COUNTIF(D34:AH34,"X")+COUNTIF(D34:AH34,"1/2")/2+COUNTIF(D34:AH34,"1/p")/2+COUNTIF(D34:AH34,"ĐH")</f>
         <v>31</v>
       </c>
-      <c r="AP34" s="534"/>
+      <c r="AP34" s="510"/>
     </row>
     <row r="35" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A35" s="528"/>
-      <c r="B35" s="533"/>
-      <c r="C35" s="528"/>
+      <c r="A35" s="496"/>
+      <c r="B35" s="509"/>
+      <c r="C35" s="496"/>
       <c r="D35" s="442"/>
       <c r="E35" s="442"/>
       <c r="F35" s="427"/>
@@ -16978,16 +16978,16 @@
         <f t="shared" ref="AO35:AO49" si="46">COUNTIF(D35:AH35,"X")+COUNTIF(D35:AH35,"1/2")/2+COUNTIF(D35:AH35,"1/p")/2+COUNTIF(D35:AH35,"ĐH")</f>
         <v>0</v>
       </c>
-      <c r="AP35" s="535"/>
+      <c r="AP35" s="511"/>
     </row>
     <row r="36" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A36" s="527">
+      <c r="A36" s="495">
         <v>15</v>
       </c>
-      <c r="B36" s="532" t="s">
+      <c r="B36" s="508" t="s">
         <v>299</v>
       </c>
-      <c r="C36" s="527" t="s">
+      <c r="C36" s="495" t="s">
         <v>280</v>
       </c>
       <c r="D36" s="421" t="s">
@@ -17111,12 +17111,12 @@
         <f t="shared" si="46"/>
         <v>31</v>
       </c>
-      <c r="AP36" s="527"/>
+      <c r="AP36" s="495"/>
     </row>
     <row r="37" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A37" s="528"/>
-      <c r="B37" s="533"/>
-      <c r="C37" s="528"/>
+      <c r="A37" s="496"/>
+      <c r="B37" s="509"/>
+      <c r="C37" s="496"/>
       <c r="D37" s="442"/>
       <c r="E37" s="442"/>
       <c r="F37" s="427"/>
@@ -17158,16 +17158,16 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AP37" s="528"/>
+      <c r="AP37" s="496"/>
     </row>
     <row r="38" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A38" s="527">
+      <c r="A38" s="495">
         <v>16</v>
       </c>
-      <c r="B38" s="564" t="s">
+      <c r="B38" s="565" t="s">
         <v>314</v>
       </c>
-      <c r="C38" s="527" t="s">
+      <c r="C38" s="495" t="s">
         <v>280</v>
       </c>
       <c r="D38" s="421" t="s">
@@ -17291,12 +17291,12 @@
         <f t="shared" si="46"/>
         <v>31</v>
       </c>
-      <c r="AP38" s="534"/>
+      <c r="AP38" s="510"/>
     </row>
     <row r="39" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A39" s="528"/>
-      <c r="B39" s="564"/>
-      <c r="C39" s="528"/>
+      <c r="A39" s="496"/>
+      <c r="B39" s="565"/>
+      <c r="C39" s="496"/>
       <c r="D39" s="442"/>
       <c r="E39" s="442"/>
       <c r="F39" s="427"/>
@@ -17338,16 +17338,16 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AP39" s="535"/>
+      <c r="AP39" s="511"/>
     </row>
     <row r="40" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A40" s="527">
+      <c r="A40" s="495">
         <v>17</v>
       </c>
-      <c r="B40" s="564" t="s">
+      <c r="B40" s="565" t="s">
         <v>309</v>
       </c>
-      <c r="C40" s="527" t="s">
+      <c r="C40" s="495" t="s">
         <v>280</v>
       </c>
       <c r="D40" s="421" t="s">
@@ -17471,12 +17471,12 @@
         <f t="shared" si="46"/>
         <v>31</v>
       </c>
-      <c r="AP40" s="534"/>
+      <c r="AP40" s="510"/>
     </row>
     <row r="41" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A41" s="528"/>
-      <c r="B41" s="564"/>
-      <c r="C41" s="528"/>
+      <c r="A41" s="496"/>
+      <c r="B41" s="565"/>
+      <c r="C41" s="496"/>
       <c r="D41" s="442"/>
       <c r="E41" s="442"/>
       <c r="F41" s="427"/>
@@ -17518,16 +17518,16 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AP41" s="535"/>
+      <c r="AP41" s="511"/>
     </row>
     <row r="42" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A42" s="527">
+      <c r="A42" s="495">
         <v>18</v>
       </c>
-      <c r="B42" s="564" t="s">
+      <c r="B42" s="565" t="s">
         <v>310</v>
       </c>
-      <c r="C42" s="527" t="s">
+      <c r="C42" s="495" t="s">
         <v>280</v>
       </c>
       <c r="D42" s="421" t="s">
@@ -17651,12 +17651,12 @@
         <f t="shared" si="46"/>
         <v>31</v>
       </c>
-      <c r="AP42" s="534"/>
+      <c r="AP42" s="510"/>
     </row>
     <row r="43" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A43" s="528"/>
-      <c r="B43" s="564"/>
-      <c r="C43" s="528"/>
+      <c r="A43" s="496"/>
+      <c r="B43" s="565"/>
+      <c r="C43" s="496"/>
       <c r="D43" s="442"/>
       <c r="E43" s="442"/>
       <c r="F43" s="427"/>
@@ -17698,16 +17698,16 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AP43" s="535"/>
+      <c r="AP43" s="511"/>
     </row>
     <row r="44" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A44" s="527">
+      <c r="A44" s="495">
         <v>19</v>
       </c>
-      <c r="B44" s="564" t="s">
+      <c r="B44" s="565" t="s">
         <v>315</v>
       </c>
-      <c r="C44" s="527" t="s">
+      <c r="C44" s="495" t="s">
         <v>280</v>
       </c>
       <c r="D44" s="421" t="s">
@@ -17829,12 +17829,12 @@
         <f t="shared" si="46"/>
         <v>30</v>
       </c>
-      <c r="AP44" s="534"/>
+      <c r="AP44" s="510"/>
     </row>
     <row r="45" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A45" s="528"/>
-      <c r="B45" s="564"/>
-      <c r="C45" s="528"/>
+      <c r="A45" s="496"/>
+      <c r="B45" s="565"/>
+      <c r="C45" s="496"/>
       <c r="D45" s="442"/>
       <c r="E45" s="442"/>
       <c r="F45" s="427"/>
@@ -17876,16 +17876,16 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AP45" s="535"/>
+      <c r="AP45" s="511"/>
     </row>
     <row r="46" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A46" s="527">
+      <c r="A46" s="495">
         <v>20</v>
       </c>
-      <c r="B46" s="564" t="s">
+      <c r="B46" s="565" t="s">
         <v>316</v>
       </c>
-      <c r="C46" s="527" t="s">
+      <c r="C46" s="495" t="s">
         <v>280</v>
       </c>
       <c r="D46" s="421" t="s">
@@ -18009,12 +18009,12 @@
         <f t="shared" si="46"/>
         <v>31</v>
       </c>
-      <c r="AP46" s="534"/>
+      <c r="AP46" s="510"/>
     </row>
     <row r="47" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A47" s="528"/>
-      <c r="B47" s="564"/>
-      <c r="C47" s="528"/>
+      <c r="A47" s="496"/>
+      <c r="B47" s="565"/>
+      <c r="C47" s="496"/>
       <c r="D47" s="442"/>
       <c r="E47" s="442"/>
       <c r="F47" s="427"/>
@@ -18056,16 +18056,16 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AP47" s="535"/>
+      <c r="AP47" s="511"/>
     </row>
     <row r="48" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A48" s="527">
+      <c r="A48" s="495">
         <v>21</v>
       </c>
-      <c r="B48" s="564" t="s">
+      <c r="B48" s="565" t="s">
         <v>321</v>
       </c>
-      <c r="C48" s="527" t="s">
+      <c r="C48" s="495" t="s">
         <v>280</v>
       </c>
       <c r="D48" s="421" t="s">
@@ -18185,12 +18185,12 @@
         <f t="shared" si="46"/>
         <v>29</v>
       </c>
-      <c r="AP48" s="534"/>
+      <c r="AP48" s="510"/>
     </row>
     <row r="49" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A49" s="528"/>
-      <c r="B49" s="564"/>
-      <c r="C49" s="528"/>
+      <c r="A49" s="496"/>
+      <c r="B49" s="565"/>
+      <c r="C49" s="496"/>
       <c r="D49" s="442"/>
       <c r="E49" s="442"/>
       <c r="F49" s="427"/>
@@ -18234,16 +18234,16 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AP49" s="535"/>
+      <c r="AP49" s="511"/>
     </row>
     <row r="50" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A50" s="527">
+      <c r="A50" s="495">
         <v>22</v>
       </c>
-      <c r="B50" s="532" t="s">
+      <c r="B50" s="508" t="s">
         <v>325</v>
       </c>
-      <c r="C50" s="527" t="s">
+      <c r="C50" s="495" t="s">
         <v>280</v>
       </c>
       <c r="D50" s="421" t="s">
@@ -18365,12 +18365,12 @@
         <f>COUNTIF(D50:AH50,"X")+COUNTIF(D50:AH50,"1/2")/2+COUNTIF(D50:AH50,"1/p")/2+COUNTIF(D50:AH50,"ĐH")</f>
         <v>30</v>
       </c>
-      <c r="AP50" s="534"/>
+      <c r="AP50" s="510"/>
     </row>
     <row r="51" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A51" s="528"/>
-      <c r="B51" s="533"/>
-      <c r="C51" s="528"/>
+      <c r="A51" s="496"/>
+      <c r="B51" s="509"/>
+      <c r="C51" s="496"/>
       <c r="D51" s="442"/>
       <c r="E51" s="442"/>
       <c r="F51" s="427"/>
@@ -18416,16 +18416,16 @@
         <f t="shared" ref="AO51" si="53">COUNTIF(D51:AH51,"X")+COUNTIF(D51:AH51,"1/2")/2+COUNTIF(D51:AH51,"1/p")/2+COUNTIF(D51:AH51,"ĐH")</f>
         <v>0</v>
       </c>
-      <c r="AP51" s="535"/>
+      <c r="AP51" s="511"/>
     </row>
     <row r="52" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A52" s="527">
+      <c r="A52" s="495">
         <v>24</v>
       </c>
-      <c r="B52" s="551" t="s">
+      <c r="B52" s="550" t="s">
         <v>328</v>
       </c>
-      <c r="C52" s="527" t="s">
+      <c r="C52" s="495" t="s">
         <v>280</v>
       </c>
       <c r="D52" s="421" t="s">
@@ -18549,12 +18549,12 @@
         <f>COUNTIF(D52:AH52,"X")+COUNTIF(D52:AH52,"1/2")/2+COUNTIF(D52:AH52,"1/p")/2+COUNTIF(D52:AH52,"ĐH")</f>
         <v>31</v>
       </c>
-      <c r="AP52" s="527"/>
+      <c r="AP52" s="495"/>
     </row>
     <row r="53" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A53" s="528"/>
-      <c r="B53" s="551"/>
-      <c r="C53" s="528"/>
+      <c r="A53" s="496"/>
+      <c r="B53" s="550"/>
+      <c r="C53" s="496"/>
       <c r="D53" s="421"/>
       <c r="E53" s="421"/>
       <c r="F53" s="421"/>
@@ -18596,16 +18596,16 @@
         <f>COUNTIF(D53:AH53,"X")+COUNTIF(D53:AH53,"1/2")/2+COUNTIF(D53:AH53,"1/p")/2+COUNTIF(D53:AH53,"ĐH")</f>
         <v>0</v>
       </c>
-      <c r="AP53" s="528"/>
+      <c r="AP53" s="496"/>
     </row>
     <row r="54" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A54" s="527">
+      <c r="A54" s="495">
         <v>25</v>
       </c>
-      <c r="B54" s="551" t="s">
+      <c r="B54" s="550" t="s">
         <v>331</v>
       </c>
-      <c r="C54" s="527" t="s">
+      <c r="C54" s="495" t="s">
         <v>280</v>
       </c>
       <c r="D54" s="421" t="s">
@@ -18729,12 +18729,12 @@
         <f>COUNTIF(D54:AH54,"X")+COUNTIF(D54:AH54,"1/2")/2+COUNTIF(D54:AH54,"1/p")/2+COUNTIF(D54:AH54,"ĐH")</f>
         <v>31</v>
       </c>
-      <c r="AP54" s="527"/>
+      <c r="AP54" s="495"/>
     </row>
     <row r="55" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A55" s="528"/>
-      <c r="B55" s="551"/>
-      <c r="C55" s="528"/>
+      <c r="A55" s="496"/>
+      <c r="B55" s="550"/>
+      <c r="C55" s="496"/>
       <c r="D55" s="421"/>
       <c r="E55" s="421"/>
       <c r="F55" s="421"/>
@@ -18778,52 +18778,52 @@
         <f t="shared" ref="AO55" si="54">COUNTIF(D55:AH55,"X")+COUNTIF(D55:AH55,"1/2")/2+COUNTIF(D55:AH55,"1/p")/2+COUNTIF(D55:AH55,"ĐH")</f>
         <v>0</v>
       </c>
-      <c r="AP55" s="528"/>
+      <c r="AP55" s="496"/>
     </row>
     <row r="56" spans="1:42" s="414" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A56" s="543" t="s">
+      <c r="A56" s="502" t="s">
         <v>202</v>
       </c>
-      <c r="B56" s="544"/>
-      <c r="C56" s="545"/>
-      <c r="D56" s="567"/>
-      <c r="E56" s="547"/>
-      <c r="F56" s="547"/>
-      <c r="G56" s="547"/>
-      <c r="H56" s="547"/>
-      <c r="I56" s="547"/>
-      <c r="J56" s="547"/>
-      <c r="K56" s="547"/>
-      <c r="L56" s="547"/>
-      <c r="M56" s="547"/>
-      <c r="N56" s="547"/>
-      <c r="O56" s="547"/>
-      <c r="P56" s="547"/>
-      <c r="Q56" s="547"/>
-      <c r="R56" s="547"/>
-      <c r="S56" s="547"/>
-      <c r="T56" s="547"/>
-      <c r="U56" s="547"/>
-      <c r="V56" s="547"/>
-      <c r="W56" s="547"/>
-      <c r="X56" s="547"/>
-      <c r="Y56" s="547"/>
-      <c r="Z56" s="547"/>
-      <c r="AA56" s="547"/>
-      <c r="AB56" s="547"/>
-      <c r="AC56" s="547"/>
-      <c r="AD56" s="547"/>
-      <c r="AE56" s="547"/>
-      <c r="AF56" s="547"/>
-      <c r="AG56" s="547"/>
-      <c r="AH56" s="547"/>
-      <c r="AI56" s="547"/>
-      <c r="AJ56" s="547"/>
-      <c r="AK56" s="547"/>
-      <c r="AL56" s="547"/>
-      <c r="AM56" s="547"/>
-      <c r="AN56" s="547"/>
-      <c r="AO56" s="548"/>
+      <c r="B56" s="503"/>
+      <c r="C56" s="504"/>
+      <c r="D56" s="564"/>
+      <c r="E56" s="506"/>
+      <c r="F56" s="506"/>
+      <c r="G56" s="506"/>
+      <c r="H56" s="506"/>
+      <c r="I56" s="506"/>
+      <c r="J56" s="506"/>
+      <c r="K56" s="506"/>
+      <c r="L56" s="506"/>
+      <c r="M56" s="506"/>
+      <c r="N56" s="506"/>
+      <c r="O56" s="506"/>
+      <c r="P56" s="506"/>
+      <c r="Q56" s="506"/>
+      <c r="R56" s="506"/>
+      <c r="S56" s="506"/>
+      <c r="T56" s="506"/>
+      <c r="U56" s="506"/>
+      <c r="V56" s="506"/>
+      <c r="W56" s="506"/>
+      <c r="X56" s="506"/>
+      <c r="Y56" s="506"/>
+      <c r="Z56" s="506"/>
+      <c r="AA56" s="506"/>
+      <c r="AB56" s="506"/>
+      <c r="AC56" s="506"/>
+      <c r="AD56" s="506"/>
+      <c r="AE56" s="506"/>
+      <c r="AF56" s="506"/>
+      <c r="AG56" s="506"/>
+      <c r="AH56" s="506"/>
+      <c r="AI56" s="506"/>
+      <c r="AJ56" s="506"/>
+      <c r="AK56" s="506"/>
+      <c r="AL56" s="506"/>
+      <c r="AM56" s="506"/>
+      <c r="AN56" s="506"/>
+      <c r="AO56" s="507"/>
       <c r="AP56" s="421"/>
     </row>
     <row r="57" spans="1:42" s="414" customFormat="1" ht="20.25" customHeight="1">
@@ -18883,14 +18883,14 @@
       <c r="L58" s="419"/>
       <c r="M58" s="419"/>
       <c r="N58" s="419"/>
-      <c r="S58" s="549" t="s">
+      <c r="S58" s="497" t="s">
         <v>262</v>
       </c>
-      <c r="T58" s="549"/>
-      <c r="U58" s="549"/>
-      <c r="V58" s="549"/>
-      <c r="W58" s="549"/>
-      <c r="X58" s="549"/>
+      <c r="T58" s="497"/>
+      <c r="U58" s="497"/>
+      <c r="V58" s="497"/>
+      <c r="W58" s="497"/>
+      <c r="X58" s="497"/>
       <c r="Y58" s="419"/>
       <c r="Z58" s="419"/>
       <c r="AA58" s="419"/>
@@ -18907,10 +18907,10 @@
       <c r="AL58" s="381"/>
       <c r="AM58" s="381"/>
       <c r="AN58" s="381"/>
-      <c r="AO58" s="549" t="s">
+      <c r="AO58" s="497" t="s">
         <v>317</v>
       </c>
-      <c r="AP58" s="549"/>
+      <c r="AP58" s="497"/>
     </row>
     <row r="59" spans="1:42" s="380" customFormat="1" ht="20.25" customHeight="1">
       <c r="A59" s="83"/>
@@ -19046,14 +19046,14 @@
       <c r="L62" s="391"/>
       <c r="M62" s="391"/>
       <c r="N62" s="391"/>
-      <c r="S62" s="465" t="s">
+      <c r="S62" s="459" t="s">
         <v>319</v>
       </c>
-      <c r="T62" s="465"/>
-      <c r="U62" s="465"/>
-      <c r="V62" s="465"/>
-      <c r="W62" s="465"/>
-      <c r="X62" s="465"/>
+      <c r="T62" s="459"/>
+      <c r="U62" s="459"/>
+      <c r="V62" s="459"/>
+      <c r="W62" s="459"/>
+      <c r="X62" s="459"/>
       <c r="Y62" s="391"/>
       <c r="Z62" s="391"/>
       <c r="AA62" s="391"/>
@@ -19070,10 +19070,10 @@
       <c r="AL62" s="399"/>
       <c r="AM62" s="395"/>
       <c r="AN62" s="395"/>
-      <c r="AO62" s="465" t="s">
+      <c r="AO62" s="459" t="s">
         <v>320</v>
       </c>
-      <c r="AP62" s="465"/>
+      <c r="AP62" s="459"/>
     </row>
     <row r="63" spans="1:42" s="380" customFormat="1" ht="20.25" customHeight="1">
       <c r="A63" s="382"/>
@@ -19815,80 +19815,24 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="S58:X58"/>
-    <mergeCell ref="AO58:AP58"/>
-    <mergeCell ref="S62:X62"/>
-    <mergeCell ref="AO62:AP62"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:AO56"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="AP52:AP53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="AP54:AP55"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="AP48:AP49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="AP50:AP51"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="AP44:AP45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="AP46:AP47"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="AP40:AP41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="AP42:AP43"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="AP36:AP37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="AP38:AP39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="AP32:AP33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="AP34:AP35"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="AP28:AP29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="AP30:AP31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="AP24:AP25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="AP26:AP27"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="AP22:AP23"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="AP12:AP13"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:AP4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:AH6"/>
+    <mergeCell ref="AI5:AK5"/>
+    <mergeCell ref="AL5:AN5"/>
+    <mergeCell ref="AO5:AO8"/>
+    <mergeCell ref="AP5:AP8"/>
+    <mergeCell ref="AI6:AI8"/>
+    <mergeCell ref="AJ6:AJ8"/>
+    <mergeCell ref="AK6:AK8"/>
     <mergeCell ref="AL6:AL8"/>
     <mergeCell ref="AM6:AM8"/>
     <mergeCell ref="AN6:AN8"/>
@@ -19913,24 +19857,80 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="AP10:AP11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:AP4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:AH6"/>
-    <mergeCell ref="AI5:AK5"/>
-    <mergeCell ref="AL5:AN5"/>
-    <mergeCell ref="AO5:AO8"/>
-    <mergeCell ref="AP5:AP8"/>
-    <mergeCell ref="AI6:AI8"/>
-    <mergeCell ref="AJ6:AJ8"/>
-    <mergeCell ref="AK6:AK8"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="AP24:AP25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="AP26:AP27"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="AP22:AP23"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="AP32:AP33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="AP34:AP35"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="AP28:AP29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="AP30:AP31"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="AP40:AP41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="AP42:AP43"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="AP36:AP37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="AP38:AP39"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="AP48:AP49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="AP50:AP51"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="AP44:AP45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="AP46:AP47"/>
+    <mergeCell ref="S58:X58"/>
+    <mergeCell ref="AO58:AP58"/>
+    <mergeCell ref="S62:X62"/>
+    <mergeCell ref="AO62:AP62"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:AO56"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="AP52:AP53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="AP54:AP55"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0.17" top="0.22" bottom="0.14000000000000001" header="0.17" footer="0.11"/>
@@ -19946,11 +19946,11 @@
   <dimension ref="A1:AX62"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="9" topLeftCell="L10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B62" sqref="B62"/>
       <selection pane="topRight" activeCell="B62" sqref="B62"/>
       <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
-      <selection pane="bottomRight" activeCell="AJ15" sqref="AJ15"/>
+      <selection pane="bottomRight" activeCell="AI5" sqref="AI5:AO9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -19974,19 +19974,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="495" t="s">
+      <c r="A1" s="524" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="495"/>
-      <c r="C1" s="495"/>
-      <c r="D1" s="495"/>
-      <c r="E1" s="495"/>
-      <c r="F1" s="495"/>
-      <c r="G1" s="495"/>
-      <c r="H1" s="495"/>
-      <c r="I1" s="495"/>
-      <c r="J1" s="495"/>
-      <c r="K1" s="495"/>
+      <c r="B1" s="524"/>
+      <c r="C1" s="524"/>
+      <c r="D1" s="524"/>
+      <c r="E1" s="524"/>
+      <c r="F1" s="524"/>
+      <c r="G1" s="524"/>
+      <c r="H1" s="524"/>
+      <c r="I1" s="524"/>
+      <c r="J1" s="524"/>
+      <c r="K1" s="524"/>
       <c r="L1" s="402"/>
       <c r="M1" s="403"/>
       <c r="N1" s="403"/>
@@ -20028,18 +20028,18 @@
       <c r="AX1" s="103"/>
     </row>
     <row r="2" spans="1:50" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="496" t="s">
+      <c r="A2" s="525" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="496"/>
-      <c r="C2" s="496"/>
-      <c r="D2" s="496"/>
-      <c r="E2" s="496"/>
-      <c r="F2" s="496"/>
-      <c r="G2" s="496"/>
-      <c r="H2" s="496"/>
-      <c r="I2" s="496"/>
-      <c r="J2" s="496"/>
+      <c r="B2" s="525"/>
+      <c r="C2" s="525"/>
+      <c r="D2" s="525"/>
+      <c r="E2" s="525"/>
+      <c r="F2" s="525"/>
+      <c r="G2" s="525"/>
+      <c r="H2" s="525"/>
+      <c r="I2" s="525"/>
+      <c r="J2" s="525"/>
       <c r="K2" s="404"/>
       <c r="L2" s="404"/>
       <c r="M2" s="405"/>
@@ -20074,16 +20074,16 @@
       <c r="AP2" s="402"/>
     </row>
     <row r="3" spans="1:50" s="28" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A3" s="497"/>
-      <c r="B3" s="497"/>
-      <c r="C3" s="497"/>
-      <c r="D3" s="497"/>
-      <c r="E3" s="497"/>
-      <c r="F3" s="497"/>
-      <c r="G3" s="497"/>
-      <c r="H3" s="497"/>
-      <c r="I3" s="497"/>
-      <c r="J3" s="497"/>
+      <c r="A3" s="526"/>
+      <c r="B3" s="526"/>
+      <c r="C3" s="526"/>
+      <c r="D3" s="526"/>
+      <c r="E3" s="526"/>
+      <c r="F3" s="526"/>
+      <c r="G3" s="526"/>
+      <c r="H3" s="526"/>
+      <c r="I3" s="526"/>
+      <c r="J3" s="526"/>
       <c r="K3" s="404"/>
       <c r="L3" s="404"/>
       <c r="M3" s="405"/>
@@ -20118,148 +20118,148 @@
       <c r="AP3" s="420"/>
     </row>
     <row r="4" spans="1:50" s="328" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A4" s="498" t="str">
+      <c r="A4" s="527" t="str">
         <f>"BẢNG CHẤM CÔNG BỘ PHẬN TẠP VỤ THÁNG "&amp;TEXT(MONTH($D$7),"00")&amp;" NĂM 2025"</f>
         <v>BẢNG CHẤM CÔNG BỘ PHẬN TẠP VỤ THÁNG 12 NĂM 2025</v>
       </c>
-      <c r="B4" s="498"/>
-      <c r="C4" s="498"/>
-      <c r="D4" s="498"/>
-      <c r="E4" s="498"/>
-      <c r="F4" s="498"/>
-      <c r="G4" s="498"/>
-      <c r="H4" s="498"/>
-      <c r="I4" s="498"/>
-      <c r="J4" s="498"/>
-      <c r="K4" s="498"/>
-      <c r="L4" s="498"/>
-      <c r="M4" s="498"/>
-      <c r="N4" s="498"/>
-      <c r="O4" s="498"/>
-      <c r="P4" s="498"/>
-      <c r="Q4" s="498"/>
-      <c r="R4" s="498"/>
-      <c r="S4" s="498"/>
-      <c r="T4" s="498"/>
-      <c r="U4" s="498"/>
-      <c r="V4" s="498"/>
-      <c r="W4" s="498"/>
-      <c r="X4" s="498"/>
-      <c r="Y4" s="498"/>
-      <c r="Z4" s="498"/>
-      <c r="AA4" s="498"/>
-      <c r="AB4" s="498"/>
-      <c r="AC4" s="498"/>
-      <c r="AD4" s="498"/>
-      <c r="AE4" s="498"/>
-      <c r="AF4" s="498"/>
-      <c r="AG4" s="498"/>
-      <c r="AH4" s="498"/>
-      <c r="AI4" s="498"/>
-      <c r="AJ4" s="498"/>
-      <c r="AK4" s="498"/>
-      <c r="AL4" s="498"/>
-      <c r="AM4" s="498"/>
-      <c r="AN4" s="498"/>
-      <c r="AO4" s="498"/>
-      <c r="AP4" s="498"/>
+      <c r="B4" s="527"/>
+      <c r="C4" s="527"/>
+      <c r="D4" s="527"/>
+      <c r="E4" s="527"/>
+      <c r="F4" s="527"/>
+      <c r="G4" s="527"/>
+      <c r="H4" s="527"/>
+      <c r="I4" s="527"/>
+      <c r="J4" s="527"/>
+      <c r="K4" s="527"/>
+      <c r="L4" s="527"/>
+      <c r="M4" s="527"/>
+      <c r="N4" s="527"/>
+      <c r="O4" s="527"/>
+      <c r="P4" s="527"/>
+      <c r="Q4" s="527"/>
+      <c r="R4" s="527"/>
+      <c r="S4" s="527"/>
+      <c r="T4" s="527"/>
+      <c r="U4" s="527"/>
+      <c r="V4" s="527"/>
+      <c r="W4" s="527"/>
+      <c r="X4" s="527"/>
+      <c r="Y4" s="527"/>
+      <c r="Z4" s="527"/>
+      <c r="AA4" s="527"/>
+      <c r="AB4" s="527"/>
+      <c r="AC4" s="527"/>
+      <c r="AD4" s="527"/>
+      <c r="AE4" s="527"/>
+      <c r="AF4" s="527"/>
+      <c r="AG4" s="527"/>
+      <c r="AH4" s="527"/>
+      <c r="AI4" s="527"/>
+      <c r="AJ4" s="527"/>
+      <c r="AK4" s="527"/>
+      <c r="AL4" s="527"/>
+      <c r="AM4" s="527"/>
+      <c r="AN4" s="527"/>
+      <c r="AO4" s="527"/>
+      <c r="AP4" s="527"/>
     </row>
     <row r="5" spans="1:50" ht="20.25" customHeight="1">
-      <c r="A5" s="556" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="557" t="s">
+      <c r="A5" s="554" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="555" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="556" t="s">
+      <c r="C5" s="554" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="558" t="s">
+      <c r="D5" s="556" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="559"/>
-      <c r="F5" s="559"/>
-      <c r="G5" s="559"/>
-      <c r="H5" s="559"/>
-      <c r="I5" s="559"/>
-      <c r="J5" s="559"/>
-      <c r="K5" s="559"/>
-      <c r="L5" s="559"/>
-      <c r="M5" s="559"/>
-      <c r="N5" s="559"/>
-      <c r="O5" s="559"/>
-      <c r="P5" s="559"/>
-      <c r="Q5" s="559"/>
-      <c r="R5" s="559"/>
-      <c r="S5" s="559"/>
-      <c r="T5" s="559"/>
-      <c r="U5" s="559"/>
-      <c r="V5" s="559"/>
-      <c r="W5" s="559"/>
-      <c r="X5" s="559"/>
-      <c r="Y5" s="559"/>
-      <c r="Z5" s="559"/>
-      <c r="AA5" s="559"/>
-      <c r="AB5" s="559"/>
-      <c r="AC5" s="559"/>
-      <c r="AD5" s="559"/>
-      <c r="AE5" s="559"/>
-      <c r="AF5" s="559"/>
-      <c r="AG5" s="559"/>
-      <c r="AH5" s="560"/>
-      <c r="AI5" s="510" t="s">
+      <c r="E5" s="557"/>
+      <c r="F5" s="557"/>
+      <c r="G5" s="557"/>
+      <c r="H5" s="557"/>
+      <c r="I5" s="557"/>
+      <c r="J5" s="557"/>
+      <c r="K5" s="557"/>
+      <c r="L5" s="557"/>
+      <c r="M5" s="557"/>
+      <c r="N5" s="557"/>
+      <c r="O5" s="557"/>
+      <c r="P5" s="557"/>
+      <c r="Q5" s="557"/>
+      <c r="R5" s="557"/>
+      <c r="S5" s="557"/>
+      <c r="T5" s="557"/>
+      <c r="U5" s="557"/>
+      <c r="V5" s="557"/>
+      <c r="W5" s="557"/>
+      <c r="X5" s="557"/>
+      <c r="Y5" s="557"/>
+      <c r="Z5" s="557"/>
+      <c r="AA5" s="557"/>
+      <c r="AB5" s="557"/>
+      <c r="AC5" s="557"/>
+      <c r="AD5" s="557"/>
+      <c r="AE5" s="557"/>
+      <c r="AF5" s="557"/>
+      <c r="AG5" s="557"/>
+      <c r="AH5" s="558"/>
+      <c r="AI5" s="536" t="s">
         <v>210</v>
       </c>
-      <c r="AJ5" s="511"/>
-      <c r="AK5" s="512"/>
-      <c r="AL5" s="513" t="s">
+      <c r="AJ5" s="537"/>
+      <c r="AK5" s="538"/>
+      <c r="AL5" s="539" t="s">
         <v>211</v>
       </c>
-      <c r="AM5" s="514"/>
-      <c r="AN5" s="514"/>
-      <c r="AO5" s="501" t="s">
+      <c r="AM5" s="540"/>
+      <c r="AN5" s="540"/>
+      <c r="AO5" s="541" t="s">
         <v>212</v>
       </c>
-      <c r="AP5" s="515" t="s">
+      <c r="AP5" s="544" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="406" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A6" s="556"/>
-      <c r="B6" s="557"/>
-      <c r="C6" s="556"/>
-      <c r="D6" s="561"/>
-      <c r="E6" s="562"/>
-      <c r="F6" s="562"/>
-      <c r="G6" s="562"/>
-      <c r="H6" s="562"/>
-      <c r="I6" s="562"/>
-      <c r="J6" s="562"/>
-      <c r="K6" s="562"/>
-      <c r="L6" s="562"/>
-      <c r="M6" s="562"/>
-      <c r="N6" s="562"/>
-      <c r="O6" s="562"/>
-      <c r="P6" s="562"/>
-      <c r="Q6" s="562"/>
-      <c r="R6" s="562"/>
-      <c r="S6" s="562"/>
-      <c r="T6" s="562"/>
-      <c r="U6" s="562"/>
-      <c r="V6" s="562"/>
-      <c r="W6" s="562"/>
-      <c r="X6" s="562"/>
-      <c r="Y6" s="562"/>
-      <c r="Z6" s="562"/>
-      <c r="AA6" s="562"/>
-      <c r="AB6" s="562"/>
-      <c r="AC6" s="562"/>
-      <c r="AD6" s="562"/>
-      <c r="AE6" s="562"/>
-      <c r="AF6" s="562"/>
-      <c r="AG6" s="562"/>
-      <c r="AH6" s="563"/>
-      <c r="AI6" s="518" t="s">
+      <c r="A6" s="554"/>
+      <c r="B6" s="555"/>
+      <c r="C6" s="554"/>
+      <c r="D6" s="559"/>
+      <c r="E6" s="560"/>
+      <c r="F6" s="560"/>
+      <c r="G6" s="560"/>
+      <c r="H6" s="560"/>
+      <c r="I6" s="560"/>
+      <c r="J6" s="560"/>
+      <c r="K6" s="560"/>
+      <c r="L6" s="560"/>
+      <c r="M6" s="560"/>
+      <c r="N6" s="560"/>
+      <c r="O6" s="560"/>
+      <c r="P6" s="560"/>
+      <c r="Q6" s="560"/>
+      <c r="R6" s="560"/>
+      <c r="S6" s="560"/>
+      <c r="T6" s="560"/>
+      <c r="U6" s="560"/>
+      <c r="V6" s="560"/>
+      <c r="W6" s="560"/>
+      <c r="X6" s="560"/>
+      <c r="Y6" s="560"/>
+      <c r="Z6" s="560"/>
+      <c r="AA6" s="560"/>
+      <c r="AB6" s="560"/>
+      <c r="AC6" s="560"/>
+      <c r="AD6" s="560"/>
+      <c r="AE6" s="560"/>
+      <c r="AF6" s="560"/>
+      <c r="AG6" s="560"/>
+      <c r="AH6" s="561"/>
+      <c r="AI6" s="547" t="s">
         <v>253</v>
       </c>
       <c r="AJ6" s="521" t="s">
@@ -20268,7 +20268,7 @@
       <c r="AK6" s="521" t="s">
         <v>214</v>
       </c>
-      <c r="AL6" s="524" t="s">
+      <c r="AL6" s="518" t="s">
         <v>243</v>
       </c>
       <c r="AM6" s="521" t="s">
@@ -20277,13 +20277,13 @@
       <c r="AN6" s="521" t="s">
         <v>215</v>
       </c>
-      <c r="AO6" s="502"/>
-      <c r="AP6" s="516"/>
+      <c r="AO6" s="542"/>
+      <c r="AP6" s="545"/>
     </row>
     <row r="7" spans="1:50" s="406" customFormat="1" ht="33" customHeight="1">
-      <c r="A7" s="556"/>
-      <c r="B7" s="557"/>
-      <c r="C7" s="556"/>
+      <c r="A7" s="554"/>
+      <c r="B7" s="555"/>
+      <c r="C7" s="554"/>
       <c r="D7" s="445">
         <v>45992</v>
       </c>
@@ -20407,19 +20407,19 @@
         <f t="shared" si="0"/>
         <v>46022</v>
       </c>
-      <c r="AI7" s="519"/>
+      <c r="AI7" s="548"/>
       <c r="AJ7" s="522"/>
       <c r="AK7" s="522"/>
-      <c r="AL7" s="525"/>
+      <c r="AL7" s="519"/>
       <c r="AM7" s="522"/>
       <c r="AN7" s="522"/>
-      <c r="AO7" s="502"/>
-      <c r="AP7" s="516"/>
+      <c r="AO7" s="542"/>
+      <c r="AP7" s="545"/>
     </row>
     <row r="8" spans="1:50" s="406" customFormat="1" ht="30.9" customHeight="1">
-      <c r="A8" s="556"/>
-      <c r="B8" s="557"/>
-      <c r="C8" s="556"/>
+      <c r="A8" s="554"/>
+      <c r="B8" s="555"/>
+      <c r="C8" s="554"/>
       <c r="D8" s="408" t="str">
         <f t="shared" ref="D8:AH8" si="1">IF("T"&amp;(WEEKDAY(D7))="T1","CN","T"&amp;(WEEKDAY(D7)))</f>
         <v>T2</v>
@@ -20544,14 +20544,14 @@
         <f t="shared" si="1"/>
         <v>T4</v>
       </c>
-      <c r="AI8" s="520"/>
+      <c r="AI8" s="549"/>
       <c r="AJ8" s="523"/>
       <c r="AK8" s="523"/>
-      <c r="AL8" s="526"/>
+      <c r="AL8" s="520"/>
       <c r="AM8" s="523"/>
       <c r="AN8" s="523"/>
-      <c r="AO8" s="503"/>
-      <c r="AP8" s="517"/>
+      <c r="AO8" s="543"/>
+      <c r="AP8" s="546"/>
     </row>
     <row r="9" spans="1:50" s="406" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="410">
@@ -20682,13 +20682,13 @@
       </c>
     </row>
     <row r="10" spans="1:50" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A10" s="527">
+      <c r="A10" s="495">
         <v>1</v>
       </c>
-      <c r="B10" s="532" t="s">
+      <c r="B10" s="508" t="s">
         <v>295</v>
       </c>
-      <c r="C10" s="501" t="s">
+      <c r="C10" s="541" t="s">
         <v>296</v>
       </c>
       <c r="D10" s="421" t="s">
@@ -20812,12 +20812,12 @@
         <f>COUNTIF(D10:AH10,"X")+COUNTIF(D10:AH10,"1/2")/2+COUNTIF(D10:AH10,"1/p")/2+COUNTIF(D10:AH10,"ĐH")</f>
         <v>31</v>
       </c>
-      <c r="AP10" s="527"/>
+      <c r="AP10" s="495"/>
     </row>
     <row r="11" spans="1:50" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A11" s="528"/>
-      <c r="B11" s="533"/>
-      <c r="C11" s="503"/>
+      <c r="A11" s="496"/>
+      <c r="B11" s="509"/>
+      <c r="C11" s="543"/>
       <c r="D11" s="442"/>
       <c r="E11" s="427"/>
       <c r="F11" s="427"/>
@@ -20856,18 +20856,18 @@
       <c r="AM11" s="411"/>
       <c r="AN11" s="411"/>
       <c r="AO11" s="413"/>
-      <c r="AP11" s="528"/>
+      <c r="AP11" s="496"/>
       <c r="AR11" s="432"/>
     </row>
     <row r="12" spans="1:50" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A12" s="527">
+      <c r="A12" s="495">
         <f>A10+1</f>
         <v>2</v>
       </c>
-      <c r="B12" s="532" t="s">
+      <c r="B12" s="508" t="s">
         <v>288</v>
       </c>
-      <c r="C12" s="541" t="s">
+      <c r="C12" s="500" t="s">
         <v>276</v>
       </c>
       <c r="D12" s="421" t="s">
@@ -20991,13 +20991,13 @@
         <f>COUNTIF(D12:AH12,"X")+COUNTIF(D12:AH12,"1/2")/2+COUNTIF(D12:AH12,"1/p")/2+COUNTIF(D12:AH12,"ĐH")</f>
         <v>31</v>
       </c>
-      <c r="AP12" s="527"/>
+      <c r="AP12" s="495"/>
       <c r="AR12" s="424"/>
     </row>
     <row r="13" spans="1:50" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A13" s="528"/>
-      <c r="B13" s="533"/>
-      <c r="C13" s="542"/>
+      <c r="A13" s="496"/>
+      <c r="B13" s="509"/>
+      <c r="C13" s="501"/>
       <c r="D13" s="442"/>
       <c r="E13" s="427"/>
       <c r="F13" s="427"/>
@@ -21036,17 +21036,17 @@
       <c r="AM13" s="411"/>
       <c r="AN13" s="411"/>
       <c r="AO13" s="413"/>
-      <c r="AP13" s="528"/>
+      <c r="AP13" s="496"/>
     </row>
     <row r="14" spans="1:50" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A14" s="527">
+      <c r="A14" s="495">
         <f>A12+1</f>
         <v>3</v>
       </c>
-      <c r="B14" s="532" t="s">
+      <c r="B14" s="508" t="s">
         <v>277</v>
       </c>
-      <c r="C14" s="541" t="s">
+      <c r="C14" s="500" t="s">
         <v>276</v>
       </c>
       <c r="D14" s="421" t="s">
@@ -21170,13 +21170,13 @@
         <f>COUNTIF(D14:AH14,"X")+COUNTIF(D14:AH14,"1/2")/2+COUNTIF(D14:AH14,"1/p")/2+COUNTIF(D14:AH14,"ĐH")</f>
         <v>31</v>
       </c>
-      <c r="AP14" s="534"/>
+      <c r="AP14" s="510"/>
       <c r="AR14" s="432"/>
     </row>
     <row r="15" spans="1:50" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A15" s="528"/>
-      <c r="B15" s="533"/>
-      <c r="C15" s="542"/>
+      <c r="A15" s="496"/>
+      <c r="B15" s="509"/>
+      <c r="C15" s="501"/>
       <c r="D15" s="442"/>
       <c r="E15" s="427"/>
       <c r="F15" s="427"/>
@@ -21215,17 +21215,17 @@
       <c r="AM15" s="411"/>
       <c r="AN15" s="411"/>
       <c r="AO15" s="413"/>
-      <c r="AP15" s="535"/>
+      <c r="AP15" s="511"/>
     </row>
     <row r="16" spans="1:50" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A16" s="527">
+      <c r="A16" s="495">
         <f>A14+1</f>
         <v>4</v>
       </c>
-      <c r="B16" s="532" t="s">
+      <c r="B16" s="508" t="s">
         <v>285</v>
       </c>
-      <c r="C16" s="541" t="s">
+      <c r="C16" s="500" t="s">
         <v>276</v>
       </c>
       <c r="D16" s="421" t="s">
@@ -21349,12 +21349,12 @@
         <f>COUNTIF(D16:AH16,"X")+COUNTIF(D16:AH16,"1/2")/2+COUNTIF(D16:AH16,"1/p")/2+COUNTIF(D16:AH16,"ĐH")</f>
         <v>31</v>
       </c>
-      <c r="AP16" s="534"/>
+      <c r="AP16" s="510"/>
     </row>
     <row r="17" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A17" s="528"/>
-      <c r="B17" s="533"/>
-      <c r="C17" s="542"/>
+      <c r="A17" s="496"/>
+      <c r="B17" s="509"/>
+      <c r="C17" s="501"/>
       <c r="D17" s="442"/>
       <c r="E17" s="427"/>
       <c r="F17" s="427"/>
@@ -21393,17 +21393,17 @@
       <c r="AM17" s="411"/>
       <c r="AN17" s="411"/>
       <c r="AO17" s="413"/>
-      <c r="AP17" s="535"/>
+      <c r="AP17" s="511"/>
     </row>
     <row r="18" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A18" s="527">
+      <c r="A18" s="495">
         <f>A16+1</f>
         <v>5</v>
       </c>
-      <c r="B18" s="564" t="s">
+      <c r="B18" s="565" t="s">
         <v>286</v>
       </c>
-      <c r="C18" s="541" t="s">
+      <c r="C18" s="500" t="s">
         <v>276</v>
       </c>
       <c r="D18" s="421" t="s">
@@ -21527,12 +21527,12 @@
         <f>COUNTIF(D18:AH18,"X")+COUNTIF(D18:AH18,"1/2")/2+COUNTIF(D18:AH18,"1/p")/2+COUNTIF(D18:AH18,"ĐH")</f>
         <v>31</v>
       </c>
-      <c r="AP18" s="534"/>
+      <c r="AP18" s="510"/>
     </row>
     <row r="19" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A19" s="528"/>
-      <c r="B19" s="564"/>
-      <c r="C19" s="542"/>
+      <c r="A19" s="496"/>
+      <c r="B19" s="565"/>
+      <c r="C19" s="501"/>
       <c r="D19" s="442"/>
       <c r="E19" s="427"/>
       <c r="F19" s="427"/>
@@ -21571,17 +21571,17 @@
       <c r="AM19" s="411"/>
       <c r="AN19" s="411"/>
       <c r="AO19" s="413"/>
-      <c r="AP19" s="535"/>
+      <c r="AP19" s="511"/>
     </row>
     <row r="20" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A20" s="527">
+      <c r="A20" s="495">
         <f>A18+1</f>
         <v>6</v>
       </c>
-      <c r="B20" s="532" t="s">
+      <c r="B20" s="508" t="s">
         <v>293</v>
       </c>
-      <c r="C20" s="541" t="s">
+      <c r="C20" s="500" t="s">
         <v>276</v>
       </c>
       <c r="D20" s="421" t="s">
@@ -21705,12 +21705,12 @@
         <f>COUNTIF(D20:AH20,"X")+COUNTIF(D20:AH20,"1/2")/2+COUNTIF(D20:AH20,"1/p")/2+COUNTIF(D20:AH20,"ĐH")</f>
         <v>31</v>
       </c>
-      <c r="AP20" s="527"/>
+      <c r="AP20" s="495"/>
     </row>
     <row r="21" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A21" s="528"/>
-      <c r="B21" s="533"/>
-      <c r="C21" s="542"/>
+      <c r="A21" s="496"/>
+      <c r="B21" s="509"/>
+      <c r="C21" s="501"/>
       <c r="D21" s="442"/>
       <c r="E21" s="427"/>
       <c r="F21" s="427"/>
@@ -21749,17 +21749,17 @@
       <c r="AM21" s="411"/>
       <c r="AN21" s="411"/>
       <c r="AO21" s="413"/>
-      <c r="AP21" s="528"/>
+      <c r="AP21" s="496"/>
     </row>
     <row r="22" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A22" s="527">
+      <c r="A22" s="495">
         <f>A20+1</f>
         <v>7</v>
       </c>
       <c r="B22" s="568" t="s">
         <v>326</v>
       </c>
-      <c r="C22" s="541" t="s">
+      <c r="C22" s="500" t="s">
         <v>276</v>
       </c>
       <c r="D22" s="421" t="s">
@@ -21886,9 +21886,9 @@
       <c r="AP22" s="570"/>
     </row>
     <row r="23" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A23" s="528"/>
+      <c r="A23" s="496"/>
       <c r="B23" s="569"/>
-      <c r="C23" s="542"/>
+      <c r="C23" s="501"/>
       <c r="D23" s="421"/>
       <c r="E23" s="421"/>
       <c r="F23" s="421"/>
@@ -21930,14 +21930,14 @@
       <c r="AP23" s="570"/>
     </row>
     <row r="24" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A24" s="527">
+      <c r="A24" s="495">
         <f>A22+1</f>
         <v>8</v>
       </c>
       <c r="B24" s="568" t="s">
         <v>301</v>
       </c>
-      <c r="C24" s="541" t="s">
+      <c r="C24" s="500" t="s">
         <v>276</v>
       </c>
       <c r="D24" s="421" t="s">
@@ -22064,9 +22064,9 @@
       <c r="AP24" s="570"/>
     </row>
     <row r="25" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A25" s="528"/>
+      <c r="A25" s="496"/>
       <c r="B25" s="569"/>
-      <c r="C25" s="542"/>
+      <c r="C25" s="501"/>
       <c r="D25" s="446"/>
       <c r="E25" s="431"/>
       <c r="F25" s="430"/>
@@ -22108,14 +22108,14 @@
       <c r="AP25" s="570"/>
     </row>
     <row r="26" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A26" s="527">
+      <c r="A26" s="495">
         <f>A24+1</f>
         <v>9</v>
       </c>
       <c r="B26" s="568" t="s">
         <v>303</v>
       </c>
-      <c r="C26" s="541" t="s">
+      <c r="C26" s="500" t="s">
         <v>276</v>
       </c>
       <c r="D26" s="421" t="s">
@@ -22242,9 +22242,9 @@
       <c r="AP26" s="570"/>
     </row>
     <row r="27" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A27" s="528"/>
+      <c r="A27" s="496"/>
       <c r="B27" s="569"/>
-      <c r="C27" s="542"/>
+      <c r="C27" s="501"/>
       <c r="D27" s="446"/>
       <c r="E27" s="430"/>
       <c r="F27" s="430"/>
@@ -22286,14 +22286,14 @@
       <c r="AP27" s="570"/>
     </row>
     <row r="28" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A28" s="527">
+      <c r="A28" s="495">
         <f t="shared" ref="A28:A36" si="2">A26+1</f>
         <v>10</v>
       </c>
-      <c r="B28" s="564" t="s">
+      <c r="B28" s="565" t="s">
         <v>278</v>
       </c>
-      <c r="C28" s="541" t="s">
+      <c r="C28" s="500" t="s">
         <v>279</v>
       </c>
       <c r="D28" s="421" t="s">
@@ -22417,12 +22417,12 @@
         <f>COUNTIF(D28:AH28,"X")+COUNTIF(D28:AH28,"1/2")/2+COUNTIF(D28:AH28,"1/p")/2+COUNTIF(D28:AH28,"ĐH")</f>
         <v>27</v>
       </c>
-      <c r="AP28" s="534"/>
+      <c r="AP28" s="510"/>
     </row>
     <row r="29" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A29" s="528"/>
-      <c r="B29" s="564"/>
-      <c r="C29" s="542"/>
+      <c r="A29" s="496"/>
+      <c r="B29" s="565"/>
+      <c r="C29" s="501"/>
       <c r="D29" s="442"/>
       <c r="E29" s="427"/>
       <c r="F29" s="427"/>
@@ -22461,17 +22461,17 @@
       <c r="AM29" s="411"/>
       <c r="AN29" s="411"/>
       <c r="AO29" s="413"/>
-      <c r="AP29" s="535"/>
+      <c r="AP29" s="511"/>
     </row>
     <row r="30" spans="1:42" s="414" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A30" s="527">
+      <c r="A30" s="495">
         <f>A36+1</f>
         <v>14</v>
       </c>
-      <c r="B30" s="539" t="s">
+      <c r="B30" s="498" t="s">
         <v>298</v>
       </c>
-      <c r="C30" s="501" t="s">
+      <c r="C30" s="541" t="s">
         <v>300</v>
       </c>
       <c r="D30" s="421" t="s">
@@ -22595,12 +22595,12 @@
         <f>COUNTIF(D30:AH30,"X")+COUNTIF(D30:AH30,"1/2")/2+COUNTIF(D30:AH30,"1/p")/2+COUNTIF(D30:AH30,"ĐH")</f>
         <v>31</v>
       </c>
-      <c r="AP30" s="527"/>
+      <c r="AP30" s="495"/>
     </row>
     <row r="31" spans="1:42" s="414" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A31" s="528"/>
-      <c r="B31" s="540"/>
-      <c r="C31" s="503"/>
+      <c r="A31" s="496"/>
+      <c r="B31" s="499"/>
+      <c r="C31" s="543"/>
       <c r="D31" s="421"/>
       <c r="E31" s="421"/>
       <c r="F31" s="421"/>
@@ -22639,17 +22639,17 @@
       <c r="AM31" s="411"/>
       <c r="AN31" s="411"/>
       <c r="AO31" s="413"/>
-      <c r="AP31" s="528"/>
+      <c r="AP31" s="496"/>
     </row>
     <row r="32" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A32" s="527">
+      <c r="A32" s="495">
         <f>A28+1</f>
         <v>11</v>
       </c>
-      <c r="B32" s="532" t="s">
+      <c r="B32" s="508" t="s">
         <v>330</v>
       </c>
-      <c r="C32" s="541" t="s">
+      <c r="C32" s="500" t="s">
         <v>287</v>
       </c>
       <c r="D32" s="421" t="s">
@@ -22763,12 +22763,12 @@
         <f>COUNTIF(D32:AH32,"X")+COUNTIF(D32:AH32,"1/2")/2+COUNTIF(D32:AH32,"1/p")/2+COUNTIF(D32:AH32,"ĐH")</f>
         <v>26</v>
       </c>
-      <c r="AP32" s="534"/>
+      <c r="AP32" s="510"/>
     </row>
     <row r="33" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A33" s="528"/>
-      <c r="B33" s="533"/>
-      <c r="C33" s="542"/>
+      <c r="A33" s="496"/>
+      <c r="B33" s="509"/>
+      <c r="C33" s="501"/>
       <c r="D33" s="442"/>
       <c r="E33" s="427"/>
       <c r="F33" s="427"/>
@@ -22807,17 +22807,17 @@
       <c r="AM33" s="411"/>
       <c r="AN33" s="411"/>
       <c r="AO33" s="413"/>
-      <c r="AP33" s="535"/>
+      <c r="AP33" s="511"/>
     </row>
     <row r="34" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A34" s="527">
+      <c r="A34" s="495">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B34" s="532" t="s">
+      <c r="B34" s="508" t="s">
         <v>294</v>
       </c>
-      <c r="C34" s="541" t="s">
+      <c r="C34" s="500" t="s">
         <v>287</v>
       </c>
       <c r="D34" s="421" t="s">
@@ -22941,12 +22941,12 @@
         <f>COUNTIF(D34:AH34,"X")+COUNTIF(D34:AH34,"1/2")/2+COUNTIF(D34:AH34,"1/p")/2+COUNTIF(D34:AH34,"ĐH")</f>
         <v>31</v>
       </c>
-      <c r="AP34" s="534"/>
+      <c r="AP34" s="510"/>
     </row>
     <row r="35" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A35" s="528"/>
-      <c r="B35" s="533"/>
-      <c r="C35" s="542"/>
+      <c r="A35" s="496"/>
+      <c r="B35" s="509"/>
+      <c r="C35" s="501"/>
       <c r="D35" s="442"/>
       <c r="E35" s="427"/>
       <c r="F35" s="427"/>
@@ -22985,17 +22985,17 @@
       <c r="AM35" s="411"/>
       <c r="AN35" s="411"/>
       <c r="AO35" s="413"/>
-      <c r="AP35" s="535"/>
+      <c r="AP35" s="511"/>
     </row>
     <row r="36" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A36" s="527">
+      <c r="A36" s="495">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B36" s="539" t="s">
+      <c r="B36" s="498" t="s">
         <v>297</v>
       </c>
-      <c r="C36" s="541" t="s">
+      <c r="C36" s="500" t="s">
         <v>287</v>
       </c>
       <c r="D36" s="421" t="s">
@@ -23119,12 +23119,12 @@
         <f>COUNTIF(D36:AH36,"X")+COUNTIF(D36:AH36,"1/2")/2+COUNTIF(D36:AH36,"1/p")/2+COUNTIF(D36:AH36,"ĐH")</f>
         <v>31</v>
       </c>
-      <c r="AP36" s="527"/>
+      <c r="AP36" s="495"/>
     </row>
     <row r="37" spans="1:42" s="414" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A37" s="528"/>
-      <c r="B37" s="540"/>
-      <c r="C37" s="542"/>
+      <c r="A37" s="496"/>
+      <c r="B37" s="499"/>
+      <c r="C37" s="501"/>
       <c r="D37" s="442"/>
       <c r="E37" s="427"/>
       <c r="F37" s="427"/>
@@ -23163,52 +23163,52 @@
       <c r="AM37" s="411"/>
       <c r="AN37" s="411"/>
       <c r="AO37" s="413"/>
-      <c r="AP37" s="528"/>
+      <c r="AP37" s="496"/>
     </row>
     <row r="38" spans="1:42" s="414" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A38" s="543" t="s">
+      <c r="A38" s="502" t="s">
         <v>202</v>
       </c>
-      <c r="B38" s="544"/>
-      <c r="C38" s="545"/>
-      <c r="D38" s="567"/>
-      <c r="E38" s="547"/>
-      <c r="F38" s="547"/>
-      <c r="G38" s="547"/>
-      <c r="H38" s="547"/>
-      <c r="I38" s="547"/>
-      <c r="J38" s="547"/>
-      <c r="K38" s="547"/>
-      <c r="L38" s="547"/>
-      <c r="M38" s="547"/>
-      <c r="N38" s="547"/>
-      <c r="O38" s="547"/>
-      <c r="P38" s="547"/>
-      <c r="Q38" s="547"/>
-      <c r="R38" s="547"/>
-      <c r="S38" s="547"/>
-      <c r="T38" s="547"/>
-      <c r="U38" s="547"/>
-      <c r="V38" s="547"/>
-      <c r="W38" s="547"/>
-      <c r="X38" s="547"/>
-      <c r="Y38" s="547"/>
-      <c r="Z38" s="547"/>
-      <c r="AA38" s="547"/>
-      <c r="AB38" s="547"/>
-      <c r="AC38" s="547"/>
-      <c r="AD38" s="547"/>
-      <c r="AE38" s="547"/>
-      <c r="AF38" s="547"/>
-      <c r="AG38" s="547"/>
-      <c r="AH38" s="547"/>
-      <c r="AI38" s="547"/>
-      <c r="AJ38" s="547"/>
-      <c r="AK38" s="547"/>
-      <c r="AL38" s="547"/>
-      <c r="AM38" s="547"/>
-      <c r="AN38" s="547"/>
-      <c r="AO38" s="548"/>
+      <c r="B38" s="503"/>
+      <c r="C38" s="504"/>
+      <c r="D38" s="564"/>
+      <c r="E38" s="506"/>
+      <c r="F38" s="506"/>
+      <c r="G38" s="506"/>
+      <c r="H38" s="506"/>
+      <c r="I38" s="506"/>
+      <c r="J38" s="506"/>
+      <c r="K38" s="506"/>
+      <c r="L38" s="506"/>
+      <c r="M38" s="506"/>
+      <c r="N38" s="506"/>
+      <c r="O38" s="506"/>
+      <c r="P38" s="506"/>
+      <c r="Q38" s="506"/>
+      <c r="R38" s="506"/>
+      <c r="S38" s="506"/>
+      <c r="T38" s="506"/>
+      <c r="U38" s="506"/>
+      <c r="V38" s="506"/>
+      <c r="W38" s="506"/>
+      <c r="X38" s="506"/>
+      <c r="Y38" s="506"/>
+      <c r="Z38" s="506"/>
+      <c r="AA38" s="506"/>
+      <c r="AB38" s="506"/>
+      <c r="AC38" s="506"/>
+      <c r="AD38" s="506"/>
+      <c r="AE38" s="506"/>
+      <c r="AF38" s="506"/>
+      <c r="AG38" s="506"/>
+      <c r="AH38" s="506"/>
+      <c r="AI38" s="506"/>
+      <c r="AJ38" s="506"/>
+      <c r="AK38" s="506"/>
+      <c r="AL38" s="506"/>
+      <c r="AM38" s="506"/>
+      <c r="AN38" s="506"/>
+      <c r="AO38" s="507"/>
       <c r="AP38" s="421"/>
     </row>
     <row r="39" spans="1:42" s="414" customFormat="1" ht="20.25" customHeight="1">
@@ -23268,14 +23268,14 @@
       <c r="L40" s="419"/>
       <c r="M40" s="419"/>
       <c r="N40" s="419"/>
-      <c r="S40" s="549" t="s">
+      <c r="S40" s="497" t="s">
         <v>262</v>
       </c>
-      <c r="T40" s="549"/>
-      <c r="U40" s="549"/>
-      <c r="V40" s="549"/>
-      <c r="W40" s="549"/>
-      <c r="X40" s="549"/>
+      <c r="T40" s="497"/>
+      <c r="U40" s="497"/>
+      <c r="V40" s="497"/>
+      <c r="W40" s="497"/>
+      <c r="X40" s="497"/>
       <c r="Y40" s="419"/>
       <c r="Z40" s="419"/>
       <c r="AA40" s="419"/>
@@ -23292,10 +23292,10 @@
       <c r="AL40" s="381"/>
       <c r="AM40" s="381"/>
       <c r="AN40" s="381"/>
-      <c r="AO40" s="549" t="s">
+      <c r="AO40" s="497" t="s">
         <v>317</v>
       </c>
-      <c r="AP40" s="549"/>
+      <c r="AP40" s="497"/>
     </row>
     <row r="41" spans="1:42" s="380" customFormat="1" ht="20.25" customHeight="1">
       <c r="A41" s="83"/>
@@ -23431,14 +23431,14 @@
       <c r="L44" s="391"/>
       <c r="M44" s="391"/>
       <c r="N44" s="391"/>
-      <c r="S44" s="465" t="s">
+      <c r="S44" s="459" t="s">
         <v>319</v>
       </c>
-      <c r="T44" s="465"/>
-      <c r="U44" s="465"/>
-      <c r="V44" s="465"/>
-      <c r="W44" s="465"/>
-      <c r="X44" s="465"/>
+      <c r="T44" s="459"/>
+      <c r="U44" s="459"/>
+      <c r="V44" s="459"/>
+      <c r="W44" s="459"/>
+      <c r="X44" s="459"/>
       <c r="Y44" s="391"/>
       <c r="Z44" s="391"/>
       <c r="AA44" s="391"/>
@@ -23455,10 +23455,10 @@
       <c r="AL44" s="399"/>
       <c r="AM44" s="395"/>
       <c r="AN44" s="395"/>
-      <c r="AO44" s="465" t="s">
+      <c r="AO44" s="459" t="s">
         <v>320</v>
       </c>
-      <c r="AP44" s="465"/>
+      <c r="AP44" s="459"/>
     </row>
     <row r="45" spans="1:42" s="380" customFormat="1" ht="20.25" customHeight="1">
       <c r="A45" s="382"/>
@@ -24199,12 +24199,64 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:AO38"/>
-    <mergeCell ref="S40:X40"/>
-    <mergeCell ref="AO40:AP40"/>
-    <mergeCell ref="S44:X44"/>
-    <mergeCell ref="AO44:AP44"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:AP4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:AH6"/>
+    <mergeCell ref="AI5:AK5"/>
+    <mergeCell ref="AL5:AN5"/>
+    <mergeCell ref="AO5:AO8"/>
+    <mergeCell ref="AP5:AP8"/>
+    <mergeCell ref="AI6:AI8"/>
+    <mergeCell ref="AJ6:AJ8"/>
+    <mergeCell ref="AK6:AK8"/>
+    <mergeCell ref="AL6:AL8"/>
+    <mergeCell ref="AM6:AM8"/>
+    <mergeCell ref="AN6:AN8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="AP10:AP11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="AP12:AP13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="AP14:AP15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="AP16:AP17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="AP18:AP19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="AP20:AP21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="AP22:AP23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="AP24:AP25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="AP26:AP27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="AP28:AP29"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="C36:C37"/>
@@ -24221,64 +24273,12 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="AP32:AP33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="AP26:AP27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="AP28:AP29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="AP22:AP23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="AP24:AP25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="AP18:AP19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="AP20:AP21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="AP14:AP15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="AP16:AP17"/>
-    <mergeCell ref="AP10:AP11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="AL6:AL8"/>
-    <mergeCell ref="AM6:AM8"/>
-    <mergeCell ref="AN6:AN8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:AP4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:AH6"/>
-    <mergeCell ref="AI5:AK5"/>
-    <mergeCell ref="AL5:AN5"/>
-    <mergeCell ref="AO5:AO8"/>
-    <mergeCell ref="AP5:AP8"/>
-    <mergeCell ref="AI6:AI8"/>
-    <mergeCell ref="AJ6:AJ8"/>
-    <mergeCell ref="AK6:AK8"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:AO38"/>
+    <mergeCell ref="S40:X40"/>
+    <mergeCell ref="AO40:AP40"/>
+    <mergeCell ref="S44:X44"/>
+    <mergeCell ref="AO44:AP44"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0.17" top="0.42" bottom="0.14000000000000001" header="0.17" footer="0.11"/>
@@ -25540,99 +25540,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A1" s="589" t="s">
+      <c r="A1" s="591" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="589"/>
-      <c r="C1" s="589"/>
-      <c r="D1" s="589"/>
-      <c r="F1" s="590" t="s">
+      <c r="B1" s="591"/>
+      <c r="C1" s="591"/>
+      <c r="D1" s="591"/>
+      <c r="F1" s="592" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="590"/>
-      <c r="H1" s="590"/>
+      <c r="G1" s="592"/>
+      <c r="H1" s="592"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="591" t="s">
+      <c r="A2" s="593" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="591"/>
-      <c r="C2" s="591"/>
-      <c r="D2" s="591"/>
-      <c r="F2" s="592" t="s">
+      <c r="B2" s="593"/>
+      <c r="C2" s="593"/>
+      <c r="D2" s="593"/>
+      <c r="F2" s="594" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="592"/>
-      <c r="H2" s="592"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="594"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A3" s="462"/>
-      <c r="B3" s="462"/>
-      <c r="C3" s="462"/>
-      <c r="D3" s="462"/>
-      <c r="F3" s="593"/>
-      <c r="G3" s="593"/>
-      <c r="H3" s="593"/>
+      <c r="A3" s="472"/>
+      <c r="B3" s="472"/>
+      <c r="C3" s="472"/>
+      <c r="D3" s="472"/>
+      <c r="F3" s="595"/>
+      <c r="G3" s="595"/>
+      <c r="H3" s="595"/>
     </row>
     <row r="4" spans="1:10" ht="26.4" customHeight="1">
-      <c r="A4" s="594" t="s">
+      <c r="A4" s="579" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="594"/>
-      <c r="C4" s="594"/>
-      <c r="D4" s="594"/>
-      <c r="E4" s="594"/>
-      <c r="F4" s="594"/>
-      <c r="G4" s="594"/>
-      <c r="H4" s="594"/>
+      <c r="B4" s="579"/>
+      <c r="C4" s="579"/>
+      <c r="D4" s="579"/>
+      <c r="E4" s="579"/>
+      <c r="F4" s="579"/>
+      <c r="G4" s="579"/>
+      <c r="H4" s="579"/>
     </row>
     <row r="5" spans="1:10" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A5" s="599" t="s">
+      <c r="A5" s="586" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="599"/>
-      <c r="C5" s="599"/>
-      <c r="D5" s="599"/>
-      <c r="E5" s="599"/>
-      <c r="F5" s="599"/>
-      <c r="G5" s="599"/>
-      <c r="H5" s="599"/>
+      <c r="B5" s="586"/>
+      <c r="C5" s="586"/>
+      <c r="D5" s="586"/>
+      <c r="E5" s="586"/>
+      <c r="F5" s="586"/>
+      <c r="G5" s="586"/>
+      <c r="H5" s="586"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A6" s="585" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="587"/>
-      <c r="C6" s="600" t="s">
+      <c r="A6" s="602" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="580"/>
+      <c r="C6" s="587" t="s">
         <v>174</v>
       </c>
-      <c r="D6" s="601"/>
-      <c r="E6" s="587" t="s">
+      <c r="D6" s="588"/>
+      <c r="E6" s="580" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="595" t="s">
+      <c r="F6" s="582" t="s">
         <v>176</v>
       </c>
-      <c r="G6" s="595" t="s">
+      <c r="G6" s="582" t="s">
         <v>177</v>
       </c>
-      <c r="H6" s="597" t="s">
+      <c r="H6" s="584" t="s">
         <v>178</v>
       </c>
-      <c r="J6" s="491" t="s">
+      <c r="J6" s="482" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A7" s="586"/>
-      <c r="B7" s="588"/>
-      <c r="C7" s="602"/>
-      <c r="D7" s="603"/>
-      <c r="E7" s="588"/>
-      <c r="F7" s="596"/>
-      <c r="G7" s="596"/>
-      <c r="H7" s="598"/>
-      <c r="J7" s="491"/>
+      <c r="A7" s="603"/>
+      <c r="B7" s="581"/>
+      <c r="C7" s="589"/>
+      <c r="D7" s="590"/>
+      <c r="E7" s="581"/>
+      <c r="F7" s="583"/>
+      <c r="G7" s="583"/>
+      <c r="H7" s="585"/>
+      <c r="J7" s="482"/>
     </row>
     <row r="8" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="14">
@@ -25641,10 +25641,10 @@
       <c r="B8" s="15">
         <v>2</v>
       </c>
-      <c r="C8" s="468">
+      <c r="C8" s="462">
         <v>3</v>
       </c>
-      <c r="D8" s="469"/>
+      <c r="D8" s="463"/>
       <c r="E8" s="16">
         <v>4</v>
       </c>
@@ -26114,11 +26114,11 @@
     <row r="24" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A24" s="286"/>
       <c r="B24" s="262"/>
-      <c r="C24" s="579" t="s">
+      <c r="C24" s="596" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="579"/>
-      <c r="E24" s="579"/>
+      <c r="D24" s="596"/>
+      <c r="E24" s="596"/>
       <c r="F24" s="299"/>
       <c r="G24" s="322"/>
       <c r="H24" s="298"/>
@@ -26215,11 +26215,11 @@
       </c>
     </row>
     <row r="28" spans="1:10" s="28" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A28" s="580">
+      <c r="A28" s="597">
         <f>+A27</f>
         <v>3</v>
       </c>
-      <c r="B28" s="581"/>
+      <c r="B28" s="598"/>
       <c r="C28" s="320" t="s">
         <v>179</v>
       </c>
@@ -26239,10 +26239,10 @@
         <v>17</v>
       </c>
       <c r="B29" s="316"/>
-      <c r="C29" s="582" t="s">
+      <c r="C29" s="599" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="583"/>
+      <c r="D29" s="600"/>
       <c r="E29" s="316"/>
       <c r="F29" s="317"/>
       <c r="G29" s="325" t="e">
@@ -26265,10 +26265,10 @@
       <c r="D31" s="328"/>
       <c r="E31" s="328"/>
       <c r="F31" s="329"/>
-      <c r="G31" s="584" t="s">
+      <c r="G31" s="601" t="s">
         <v>180</v>
       </c>
-      <c r="H31" s="584"/>
+      <c r="H31" s="601"/>
       <c r="I31" s="94"/>
     </row>
     <row r="32" spans="1:10" s="28" customFormat="1" ht="16.8">
@@ -26276,15 +26276,15 @@
       <c r="D32" s="328"/>
       <c r="E32" s="328"/>
       <c r="F32" s="329"/>
-      <c r="G32" s="584" t="s">
+      <c r="G32" s="601" t="s">
         <v>181</v>
       </c>
-      <c r="H32" s="584"/>
+      <c r="H32" s="601"/>
       <c r="I32" s="94"/>
     </row>
     <row r="33" spans="1:10" s="28" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A33" s="465"/>
-      <c r="B33" s="465"/>
+      <c r="A33" s="459"/>
+      <c r="B33" s="459"/>
       <c r="D33" s="103"/>
       <c r="F33" s="89"/>
       <c r="G33" s="126"/>
@@ -26487,19 +26487,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="C8:D8"/>
@@ -26510,6 +26497,19 @@
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="C6:D7"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
